--- a/src/assets/excel/caza.xlsx
+++ b/src/assets/excel/caza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Node\Bot-TH-Wsp\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96422789-5CCA-4B69-925D-52771BC200F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD23A4-08F8-44D0-8008-A62E1817377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{72607D6B-F0C4-46B3-AF49-1851F2BE66AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{72607D6B-F0C4-46B3-AF49-1851F2BE66AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="20" r:id="rId1"/>
@@ -18,14 +18,13 @@
     <sheet name="Caza" sheetId="26" r:id="rId3"/>
     <sheet name="Ranking Evento" sheetId="22" r:id="rId4"/>
     <sheet name="Caza lvl 1" sheetId="18" r:id="rId5"/>
-    <sheet name="Equipo" sheetId="24" r:id="rId6"/>
-    <sheet name="Avisos" sheetId="31" r:id="rId7"/>
-    <sheet name="07-09-2025" sheetId="34" r:id="rId8"/>
-    <sheet name="14-09-2025" sheetId="35" r:id="rId9"/>
+    <sheet name="Avisos" sheetId="31" r:id="rId6"/>
+    <sheet name="07-09-2025" sheetId="34" r:id="rId7"/>
+    <sheet name="14-09-2025" sheetId="35" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'07-09-2025'!$A$4:$L$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Caza!$A$4:$L$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'07-09-2025'!$A$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Caza!$A$4:$M$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ranking Evento'!$B$1:$H$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Top 10'!$B$1:$D$1</definedName>
   </definedNames>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="230">
   <si>
     <t>Nombre</t>
   </si>
@@ -758,6 +757,9 @@
   <si>
     <t>15/09/2025 al 21/09/2025</t>
   </si>
+  <si>
+    <t>IGG ID</t>
+  </si>
 </sst>
 </file>
 
@@ -996,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,9 +1072,6 @@
     <xf numFmtId="1" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1085,7 +1084,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1168,6 +1167,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1203,46 +1222,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1441,13 +1420,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2BAD332-216C-4A50-BA89-706D2AD1D01D}" name="Tabla1" displayName="Tabla1" ref="A1:A102" totalsRowShown="0" totalsRowDxfId="27" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2BAD332-216C-4A50-BA89-706D2AD1D01D}" name="Tabla1" displayName="Tabla1" ref="A1:A102" totalsRowShown="0" totalsRowDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:A102" xr:uid="{D2BAD332-216C-4A50-BA89-706D2AD1D01D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A56">
     <sortCondition ref="A1:A56"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{949AF41D-56DF-4900-A139-D8F15899ECC1}" name="NOMBRE" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{949AF41D-56DF-4900-A139-D8F15899ECC1}" name="NOMBRE" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5278,16 +5257,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1 B101:B1048576">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"Cumplio"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"No Cumplio"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Cumplio">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Cumplio">
       <formula>NOT(ISERROR(SEARCH("Cumplio",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="No cumplio">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="No cumplio">
       <formula>NOT(ISERROR(SEARCH("No cumplio",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,24 +6935,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F4E31B-89C1-4409-9A86-5CBD30F5EBA1}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C103"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="26" customWidth="1"/>
+    <col min="6" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6981,530 +6960,563 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30">
-        <f>SUM(D5:D103)</f>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:J3" si="0">SUM(E5:E103)</f>
         <v>1985</v>
       </c>
-      <c r="E3" s="30">
-        <f>SUM(E5:E103)</f>
+      <c r="F3" s="30">
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F3" s="30">
-        <f>SUM(F5:F103)</f>
+      <c r="G3" s="30">
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G3" s="30">
-        <f>SUM(G5:G103)</f>
+      <c r="H3" s="30">
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="H3" s="30">
-        <f>SUM(H5:H103)</f>
+      <c r="I3" s="30">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I3" s="30">
-        <f>SUM(I5:I103)</f>
+      <c r="J3" s="30">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J4" s="6" t="s">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C5,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D5,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B5" s="16" t="str">
-        <f>_xlfn.IFS(A5 = "4lvl2",IF(J5&gt;=28,"Cumplio", "No cumplio"),A5 = "4lvl1",IF(K5&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" ref="B5:B36" si="1">_xlfn.IFS(A5 = "4lvl2",IF(K5&gt;=28,"Cumplio", "No cumplio"),A5 = "4lvl1",IF(L5&gt;= 28,"Cumplio","No cumplio"))</f>
         <v>Cumplio</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="16">
+        <v>416845218</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="28">
-        <f>SUM(E5:I5)</f>
+      <c r="E5" s="28">
+        <f>SUM(F5:J5)</f>
         <v>20</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
       <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <f>(G5*3)+(H5*9)+(I5*18)+F5</f>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" ref="K5:K36" si="2">(H5*3)+(I5*9)+(J5*18)+G5</f>
         <v>36</v>
       </c>
-      <c r="K5" s="24">
-        <f>F5*5+E5</f>
+      <c r="L5" s="24">
+        <f t="shared" ref="L5:L36" si="3">G5*5+F5</f>
         <v>75</v>
       </c>
-      <c r="L5" s="17" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(A5="4lvl2",IF(J5&gt;=28,"No debe",28-J5), A5="4lvl1",IF(K5&gt;=28,"No debe",28-K5))</f>
+      <c r="M5" s="17" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(A5="4lvl2",IF(K5&gt;=28,"No debe",28-K5), A5="4lvl1",IF(L5&gt;=28,"No debe",28-L5))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C6,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D6,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B6" s="16" t="str">
-        <f>_xlfn.IFS(A6 = "4lvl2",IF(J6&gt;=28,"Cumplio", "No cumplio"),A6 = "4lvl1",IF(K6&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16">
+        <v>346561690</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="28">
-        <f t="shared" ref="D6:D69" si="0">SUM(E6:I6)</f>
+      <c r="E6" s="28">
+        <f t="shared" ref="E6:E69" si="4">SUM(F6:J6)</f>
         <v>9</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
       <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="25">
-        <f>(G6*3)+(H6*9)+(I6*18)+F6</f>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K6" s="24">
-        <f>F6*5+E6</f>
+      <c r="L6" s="24">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L6" s="17" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(A6="4lvl2",IF(J6&gt;=28,"No debe",28-J6), A6="4lvl1",IF(K6&gt;=28,"No debe",28-K6))</f>
+      <c r="M6" s="17" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(A6="4lvl2",IF(K6&gt;=28,"No debe",28-K6), A6="4lvl1",IF(L6&gt;=28,"No debe",28-L6))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C7,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D7,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B7" s="16" t="str">
-        <f>_xlfn.IFS(A7 = "4lvl2",IF(J7&gt;=28,"Cumplio", "No cumplio"),A7 = "4lvl1",IF(K7&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16">
+        <v>365438142</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28">
-        <f t="shared" si="0"/>
+      <c r="E7" s="28">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
       <c r="F7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="25">
-        <f>(G7*3)+(H7*9)+(I7*18)+F7</f>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K7" s="24">
-        <f>F7*5+E7</f>
+      <c r="L7" s="24">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="L7" s="17" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(A7="4lvl2",IF(J7&gt;=28,"No debe",28-J7), A7="4lvl1",IF(K7&gt;=28,"No debe",28-K7))</f>
+      <c r="M7" s="17" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(A7="4lvl2",IF(K7&gt;=28,"No debe",28-K7), A7="4lvl1",IF(L7&gt;=28,"No debe",28-L7))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C8,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D8,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B8" s="16" t="str">
-        <f>_xlfn.IFS(A8 = "4lvl2",IF(J8&gt;=28,"Cumplio", "No cumplio"),A8 = "4lvl1",IF(K8&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16">
+        <v>429558715</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="28">
-        <f t="shared" si="0"/>
+      <c r="E8" s="28">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
       <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>9</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="25">
-        <f>(G8*3)+(H8*9)+(I8*18)+F8</f>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K8" s="24">
-        <f>F8*5+E8</f>
+      <c r="L8" s="24">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L8" s="17" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(A8="4lvl2",IF(J8&gt;=28,"No debe",28-J8), A8="4lvl1",IF(K8&gt;=28,"No debe",28-K8))</f>
+      <c r="M8" s="17" t="str" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(A8="4lvl2",IF(K8&gt;=28,"No debe",28-K8), A8="4lvl1",IF(L8&gt;=28,"No debe",28-L8))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C9,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D9,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B9" s="16" t="str">
-        <f>_xlfn.IFS(A9 = "4lvl2",IF(J9&gt;=28,"Cumplio", "No cumplio"),A9 = "4lvl1",IF(K9&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="16">
+        <v>1326589935</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="28">
-        <f t="shared" si="0"/>
+      <c r="E9" s="28">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
       <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="25">
-        <f>(G9*3)+(H9*9)+(I9*18)+F9</f>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K9" s="24">
-        <f>F9*5+E9</f>
+      <c r="L9" s="24">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L9" s="17" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(A9="4lvl2",IF(J9&gt;=28,"No debe",28-J9), A9="4lvl1",IF(K9&gt;=28,"No debe",28-K9))</f>
+      <c r="M9" s="17" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(A9="4lvl2",IF(K9&gt;=28,"No debe",28-K9), A9="4lvl1",IF(L9&gt;=28,"No debe",28-L9))</f>
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C10,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D10,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B10" s="16" t="str">
-        <f>_xlfn.IFS(A10 = "4lvl2",IF(J10&gt;=28,"Cumplio", "No cumplio"),A10 = "4lvl1",IF(K10&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="16">
+        <v>1789025900</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="28">
-        <f t="shared" si="0"/>
+      <c r="E10" s="28">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>12</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="25">
-        <f>(G10*3)+(H10*9)+(I10*18)+F10</f>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K10" s="24">
-        <f>F10*5+E10</f>
+      <c r="L10" s="24">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="L10" s="17" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(A10="4lvl2",IF(J10&gt;=28,"No debe",28-J10), A10="4lvl1",IF(K10&gt;=28,"No debe",28-K10))</f>
+      <c r="M10" s="17" t="str" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(A10="4lvl2",IF(K10&gt;=28,"No debe",28-K10), A10="4lvl1",IF(L10&gt;=28,"No debe",28-L10))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C11,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D11,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B11" s="16" t="str">
-        <f>_xlfn.IFS(A11 = "4lvl2",IF(J11&gt;=28,"Cumplio", "No cumplio"),A11 = "4lvl1",IF(K11&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="16">
+        <v>339024723</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="28">
-        <f t="shared" si="0"/>
+      <c r="E11" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
       <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>28</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
-        <f>(G11*3)+(H11*9)+(I11*18)+F11</f>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K11" s="24">
-        <f>F11*5+E11</f>
+      <c r="L11" s="24">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L11" s="17" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(A11="4lvl2",IF(J11&gt;=28,"No debe",28-J11), A11="4lvl1",IF(K11&gt;=28,"No debe",28-K11))</f>
+      <c r="M11" s="17" t="str" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(A11="4lvl2",IF(K11&gt;=28,"No debe",28-K11), A11="4lvl1",IF(L11&gt;=28,"No debe",28-L11))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C12,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D12,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B12" s="16" t="str">
-        <f>_xlfn.IFS(A12 = "4lvl2",IF(J12&gt;=28,"Cumplio", "No cumplio"),A12 = "4lvl1",IF(K12&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="16">
+        <v>315992503</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="28">
-        <f t="shared" si="0"/>
+      <c r="E12" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
       <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>28</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="25">
-        <f>(G12*3)+(H12*9)+(I12*18)+F12</f>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K12" s="24">
-        <f>F12*5+E12</f>
+      <c r="L12" s="24">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L12" s="17" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(A12="4lvl2",IF(J12&gt;=28,"No debe",28-J12), A12="4lvl1",IF(K12&gt;=28,"No debe",28-K12))</f>
+      <c r="M12" s="17" t="str" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(A12="4lvl2",IF(K12&gt;=28,"No debe",28-K12), A12="4lvl1",IF(L12&gt;=28,"No debe",28-L12))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C13,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D13,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B13" s="16" t="str">
-        <f>_xlfn.IFS(A13 = "4lvl2",IF(J13&gt;=28,"Cumplio", "No cumplio"),A13 = "4lvl1",IF(K13&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="16">
+        <v>355652066</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="28">
-        <f t="shared" si="0"/>
+      <c r="E13" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
       <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>28</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="25">
-        <f>(G13*3)+(H13*9)+(I13*18)+F13</f>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K13" s="24">
-        <f>F13*5+E13</f>
+      <c r="L13" s="24">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L13" s="17" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(A13="4lvl2",IF(J13&gt;=28,"No debe",28-J13), A13="4lvl1",IF(K13&gt;=28,"No debe",28-K13))</f>
+      <c r="M13" s="17" t="str" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(A13="4lvl2",IF(K13&gt;=28,"No debe",28-K13), A13="4lvl1",IF(L13&gt;=28,"No debe",28-L13))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C14,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D14,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B14" s="16" t="str">
-        <f>_xlfn.IFS(A14 = "4lvl2",IF(J14&gt;=28,"Cumplio", "No cumplio"),A14 = "4lvl1",IF(K14&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16">
+        <v>655044313</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="28">
-        <f t="shared" si="0"/>
+      <c r="E14" s="28">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
       <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>31</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
-        <f>(G14*3)+(H14*9)+(I14*18)+F14</f>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="K14" s="24">
-        <f>F14*5+E14</f>
+      <c r="L14" s="24">
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="L14" s="17" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(A14="4lvl2",IF(J14&gt;=28,"No debe",28-J14), A14="4lvl1",IF(K14&gt;=28,"No debe",28-K14))</f>
+      <c r="M14" s="17" t="str" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(A14="4lvl2",IF(K14&gt;=28,"No debe",28-K14), A14="4lvl1",IF(L14&gt;=28,"No debe",28-L14))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C15,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D15,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B15" s="16" t="str">
-        <f>_xlfn.IFS(A15 = "4lvl2",IF(J15&gt;=28,"Cumplio", "No cumplio"),A15 = "4lvl1",IF(K15&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="E15" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
@@ -7519,307 +7531,328 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="25">
-        <f>(G15*3)+(H15*9)+(I15*18)+F15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="24">
-        <f>F15*5+E15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="17" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(A15="4lvl2",IF(J15&gt;=28,"No debe",28-J15), A15="4lvl1",IF(K15&gt;=28,"No debe",28-K15))</f>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(A15="4lvl2",IF(K15&gt;=28,"No debe",28-K15), A15="4lvl1",IF(L15&gt;=28,"No debe",28-L15))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C16,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D16,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B16" s="16" t="str">
-        <f>_xlfn.IFS(A16 = "4lvl2",IF(J16&gt;=28,"Cumplio", "No cumplio"),A16 = "4lvl1",IF(K16&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="16">
+        <v>659115650</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="28">
-        <f t="shared" si="0"/>
+      <c r="E16" s="28">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
       <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <v>39</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="25">
-        <f>(G16*3)+(H16*9)+(I16*18)+F16</f>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="K16" s="24">
-        <f>F16*5+E16</f>
+      <c r="L16" s="24">
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="L16" s="17" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(A16="4lvl2",IF(J16&gt;=28,"No debe",28-J16), A16="4lvl1",IF(K16&gt;=28,"No debe",28-K16))</f>
+      <c r="M16" s="17" t="str" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(A16="4lvl2",IF(K16&gt;=28,"No debe",28-K16), A16="4lvl1",IF(L16&gt;=28,"No debe",28-L16))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C17,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D17,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B17" s="16" t="str">
-        <f>_xlfn.IFS(A17 = "4lvl2",IF(J17&gt;=28,"Cumplio", "No cumplio"),A17 = "4lvl1",IF(K17&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="16">
+        <v>1915163097</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="28">
-        <f t="shared" si="0"/>
+      <c r="E17" s="28">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>7</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="J17" s="25">
-        <f>(G17*3)+(H17*9)+(I17*18)+F17</f>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K17" s="24">
-        <f>F17*5+E17</f>
+      <c r="L17" s="24">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L17" s="17" t="str" cm="1">
-        <f t="array" ref="L17">_xlfn.IFS(A17="4lvl2",IF(J17&gt;=28,"No debe",28-J17), A17="4lvl1",IF(K17&gt;=28,"No debe",28-K17))</f>
+      <c r="M17" s="17" t="str" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(A17="4lvl2",IF(K17&gt;=28,"No debe",28-K17), A17="4lvl1",IF(L17&gt;=28,"No debe",28-L17))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C18,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D18,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B18" s="16" t="str">
-        <f>_xlfn.IFS(A18 = "4lvl2",IF(J18&gt;=28,"Cumplio", "No cumplio"),A18 = "4lvl1",IF(K18&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="16">
+        <v>804886690</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="28">
-        <f t="shared" si="0"/>
+      <c r="E18" s="28">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
       <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>13</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="25">
-        <f>(G18*3)+(H18*9)+(I18*18)+F18</f>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="K18" s="24">
-        <f>F18*5+E18</f>
+      <c r="L18" s="24">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L18" s="17" cm="1">
-        <f t="array" ref="L18">_xlfn.IFS(A18="4lvl2",IF(J18&gt;=28,"No debe",28-J18), A18="4lvl1",IF(K18&gt;=28,"No debe",28-K18))</f>
+      <c r="M18" s="17" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(A18="4lvl2",IF(K18&gt;=28,"No debe",28-K18), A18="4lvl1",IF(L18&gt;=28,"No debe",28-L18))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C19,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D19,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B19" s="16" t="str">
-        <f>_xlfn.IFS(A19 = "4lvl2",IF(J19&gt;=28,"Cumplio", "No cumplio"),A19 = "4lvl1",IF(K19&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="16">
+        <v>1092680272</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="28">
-        <f t="shared" si="0"/>
+      <c r="E19" s="28">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
       <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>31</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="J19" s="25">
-        <f>(G19*3)+(H19*9)+(I19*18)+F19</f>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K19" s="24">
-        <f>F19*5+E19</f>
+      <c r="L19" s="24">
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="L19" s="17" t="str" cm="1">
-        <f t="array" ref="L19">_xlfn.IFS(A19="4lvl2",IF(J19&gt;=28,"No debe",28-J19), A19="4lvl1",IF(K19&gt;=28,"No debe",28-K19))</f>
+      <c r="M19" s="17" t="str" cm="1">
+        <f t="array" ref="M19">_xlfn.IFS(A19="4lvl2",IF(K19&gt;=28,"No debe",28-K19), A19="4lvl1",IF(L19&gt;=28,"No debe",28-L19))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C20,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D20,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B20" s="16" t="str">
-        <f>_xlfn.IFS(A20 = "4lvl2",IF(J20&gt;=28,"Cumplio", "No cumplio"),A20 = "4lvl1",IF(K20&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="16">
+        <v>326455645</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="28">
-        <f t="shared" si="0"/>
+      <c r="E20" s="28">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
       <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
         <v>15</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
       <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
-        <f>(G20*3)+(H20*9)+(I20*18)+F20</f>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="K20" s="24">
-        <f>F20*5+E20</f>
+      <c r="L20" s="24">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L20" s="17" t="str" cm="1">
-        <f t="array" ref="L20">_xlfn.IFS(A20="4lvl2",IF(J20&gt;=28,"No debe",28-J20), A20="4lvl1",IF(K20&gt;=28,"No debe",28-K20))</f>
+      <c r="M20" s="17" t="str" cm="1">
+        <f t="array" ref="M20">_xlfn.IFS(A20="4lvl2",IF(K20&gt;=28,"No debe",28-K20), A20="4lvl1",IF(L20&gt;=28,"No debe",28-L20))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C21,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D21,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B21" s="16" t="str">
-        <f>_xlfn.IFS(A21 = "4lvl2",IF(J21&gt;=28,"Cumplio", "No cumplio"),A21 = "4lvl1",IF(K21&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="16">
+        <v>723725687</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="28">
-        <f t="shared" si="0"/>
+      <c r="E21" s="28">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
       <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
         <v>15</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>8</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
       <c r="I21" s="7">
         <v>0</v>
       </c>
-      <c r="J21" s="25">
-        <f>(G21*3)+(H21*9)+(I21*18)+F21</f>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="K21" s="24">
-        <f>F21*5+E21</f>
+      <c r="L21" s="24">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L21" s="17" t="str" cm="1">
-        <f t="array" ref="L21">_xlfn.IFS(A21="4lvl2",IF(J21&gt;=28,"No debe",28-J21), A21="4lvl1",IF(K21&gt;=28,"No debe",28-K21))</f>
+      <c r="M21" s="17" t="str" cm="1">
+        <f t="array" ref="M21">_xlfn.IFS(A21="4lvl2",IF(K21&gt;=28,"No debe",28-K21), A21="4lvl1",IF(L21&gt;=28,"No debe",28-L21))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C22,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D22,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B22" s="16" t="str">
-        <f>_xlfn.IFS(A22 = "4lvl2",IF(J22&gt;=28,"Cumplio", "No cumplio"),A22 = "4lvl1",IF(K22&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="16">
+        <v>2024927090</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="28">
-        <f t="shared" si="0"/>
+      <c r="E22" s="28">
+        <f t="shared" si="4"/>
         <v>18</v>
-      </c>
-      <c r="E22" s="7">
-        <v>9</v>
       </c>
       <c r="F22" s="7">
         <v>9</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7827,525 +7860,561 @@
       <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="J22" s="25">
-        <f>(G22*3)+(H22*9)+(I22*18)+F22</f>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K22" s="24">
-        <f>F22*5+E22</f>
+      <c r="L22" s="24">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="L22" s="17" t="str" cm="1">
-        <f t="array" ref="L22">_xlfn.IFS(A22="4lvl2",IF(J22&gt;=28,"No debe",28-J22), A22="4lvl1",IF(K22&gt;=28,"No debe",28-K22))</f>
+      <c r="M22" s="17" t="str" cm="1">
+        <f t="array" ref="M22">_xlfn.IFS(A22="4lvl2",IF(K22&gt;=28,"No debe",28-K22), A22="4lvl1",IF(L22&gt;=28,"No debe",28-L22))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C23,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D23,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f>_xlfn.IFS(A23 = "4lvl2",IF(J23&gt;=28,"Cumplio", "No cumplio"),A23 = "4lvl1",IF(K23&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="16">
+        <v>684207550</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28">
-        <f t="shared" si="0"/>
+      <c r="E23" s="28">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
       <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
         <v>41</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>4</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
       <c r="I23" s="7">
         <v>0</v>
       </c>
-      <c r="J23" s="25">
-        <f>(G23*3)+(H23*9)+(I23*18)+F23</f>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K23" s="24">
-        <f>F23*5+E23</f>
+      <c r="L23" s="24">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="L23" s="17" t="str" cm="1">
-        <f t="array" ref="L23">_xlfn.IFS(A23="4lvl2",IF(J23&gt;=28,"No debe",28-J23), A23="4lvl1",IF(K23&gt;=28,"No debe",28-K23))</f>
+      <c r="M23" s="17" t="str" cm="1">
+        <f t="array" ref="M23">_xlfn.IFS(A23="4lvl2",IF(K23&gt;=28,"No debe",28-K23), A23="4lvl1",IF(L23&gt;=28,"No debe",28-L23))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C24,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D24,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B24" s="16" t="str">
-        <f>_xlfn.IFS(A24 = "4lvl2",IF(J24&gt;=28,"Cumplio", "No cumplio"),A24 = "4lvl1",IF(K24&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="16">
+        <v>1205711101</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="28">
-        <f t="shared" si="0"/>
+      <c r="E24" s="28">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
       <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
         <v>7</v>
       </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="J24" s="25">
-        <f>(G24*3)+(H24*9)+(I24*18)+F24</f>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K24" s="24">
-        <f>F24*5+E24</f>
+      <c r="L24" s="24">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="L24" s="17" cm="1">
-        <f t="array" ref="L24">_xlfn.IFS(A24="4lvl2",IF(J24&gt;=28,"No debe",28-J24), A24="4lvl1",IF(K24&gt;=28,"No debe",28-K24))</f>
+      <c r="M24" s="17" cm="1">
+        <f t="array" ref="M24">_xlfn.IFS(A24="4lvl2",IF(K24&gt;=28,"No debe",28-K24), A24="4lvl1",IF(L24&gt;=28,"No debe",28-L24))</f>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C25,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D25,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B25" s="16" t="str">
-        <f>_xlfn.IFS(A25 = "4lvl2",IF(J25&gt;=28,"Cumplio", "No cumplio"),A25 = "4lvl1",IF(K25&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="16">
+        <v>357402771</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="28">
-        <f t="shared" si="0"/>
+      <c r="E25" s="28">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
       <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
         <v>16</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="25">
-        <f>(G25*3)+(H25*9)+(I25*18)+F25</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K25" s="24">
-        <f>F25*5+E25</f>
+      <c r="L25" s="24">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L25" s="17" t="str" cm="1">
-        <f t="array" ref="L25">_xlfn.IFS(A25="4lvl2",IF(J25&gt;=28,"No debe",28-J25), A25="4lvl1",IF(K25&gt;=28,"No debe",28-K25))</f>
+      <c r="M25" s="17" t="str" cm="1">
+        <f t="array" ref="M25">_xlfn.IFS(A25="4lvl2",IF(K25&gt;=28,"No debe",28-K25), A25="4lvl1",IF(L25&gt;=28,"No debe",28-L25))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C26,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D26,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B26" s="16" t="str">
-        <f>_xlfn.IFS(A26 = "4lvl2",IF(J26&gt;=28,"Cumplio", "No cumplio"),A26 = "4lvl1",IF(K26&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="16">
+        <v>871736685</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="28">
-        <f t="shared" si="0"/>
+      <c r="E26" s="28">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
       <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
         <v>30</v>
       </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="J26" s="25">
-        <f>(G26*3)+(H26*9)+(I26*18)+F26</f>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K26" s="24">
-        <f>F26*5+E26</f>
+      <c r="L26" s="24">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="L26" s="17" t="str" cm="1">
-        <f t="array" ref="L26">_xlfn.IFS(A26="4lvl2",IF(J26&gt;=28,"No debe",28-J26), A26="4lvl1",IF(K26&gt;=28,"No debe",28-K26))</f>
+      <c r="M26" s="17" t="str" cm="1">
+        <f t="array" ref="M26">_xlfn.IFS(A26="4lvl2",IF(K26&gt;=28,"No debe",28-K26), A26="4lvl1",IF(L26&gt;=28,"No debe",28-L26))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C27,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D27,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f>_xlfn.IFS(A27 = "4lvl2",IF(J27&gt;=28,"Cumplio", "No cumplio"),A27 = "4lvl1",IF(K27&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="16">
+        <v>642356966</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="28">
-        <f t="shared" si="0"/>
+      <c r="E27" s="28">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
       <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
         <v>9</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>6</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
       <c r="I27" s="7">
         <v>0</v>
       </c>
-      <c r="J27" s="25">
-        <f>(G27*3)+(H27*9)+(I27*18)+F27</f>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K27" s="24">
-        <f>F27*5+E27</f>
+      <c r="L27" s="24">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="L27" s="17" cm="1">
-        <f t="array" ref="L27">_xlfn.IFS(A27="4lvl2",IF(J27&gt;=28,"No debe",28-J27), A27="4lvl1",IF(K27&gt;=28,"No debe",28-K27))</f>
+      <c r="M27" s="17" cm="1">
+        <f t="array" ref="M27">_xlfn.IFS(A27="4lvl2",IF(K27&gt;=28,"No debe",28-K27), A27="4lvl1",IF(L27&gt;=28,"No debe",28-L27))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C28,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D28,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f>_xlfn.IFS(A28 = "4lvl2",IF(J28&gt;=28,"Cumplio", "No cumplio"),A28 = "4lvl1",IF(K28&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="16">
+        <v>843179440</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="28">
-        <f t="shared" si="0"/>
+      <c r="E28" s="28">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
       <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
         <v>35</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <v>6</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
       <c r="I28" s="7">
         <v>0</v>
       </c>
-      <c r="J28" s="25">
-        <f>(G28*3)+(H28*9)+(I28*18)+F28</f>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K28" s="24">
-        <f>F28*5+E28</f>
+      <c r="L28" s="24">
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="L28" s="17" t="str" cm="1">
-        <f t="array" ref="L28">_xlfn.IFS(A28="4lvl2",IF(J28&gt;=28,"No debe",28-J28), A28="4lvl1",IF(K28&gt;=28,"No debe",28-K28))</f>
+      <c r="M28" s="17" t="str" cm="1">
+        <f t="array" ref="M28">_xlfn.IFS(A28="4lvl2",IF(K28&gt;=28,"No debe",28-K28), A28="4lvl1",IF(L28&gt;=28,"No debe",28-L28))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C29,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D29,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B29" s="16" t="str">
-        <f>_xlfn.IFS(A29 = "4lvl2",IF(J29&gt;=28,"Cumplio", "No cumplio"),A29 = "4lvl1",IF(K29&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="16">
+        <v>2032787999</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="28">
-        <f t="shared" si="0"/>
+      <c r="E29" s="28">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <v>2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>6</v>
       </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
       </c>
-      <c r="J29" s="25">
-        <f>(G29*3)+(H29*9)+(I29*18)+F29</f>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K29" s="24">
-        <f>F29*5+E29</f>
+      <c r="L29" s="24">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="L29" s="17" t="str" cm="1">
-        <f t="array" ref="L29">_xlfn.IFS(A29="4lvl2",IF(J29&gt;=28,"No debe",28-J29), A29="4lvl1",IF(K29&gt;=28,"No debe",28-K29))</f>
+      <c r="M29" s="17" t="str" cm="1">
+        <f t="array" ref="M29">_xlfn.IFS(A29="4lvl2",IF(K29&gt;=28,"No debe",28-K29), A29="4lvl1",IF(L29&gt;=28,"No debe",28-L29))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C30,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D30,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B30" s="16" t="str">
-        <f>_xlfn.IFS(A30 = "4lvl2",IF(J30&gt;=28,"Cumplio", "No cumplio"),A30 = "4lvl1",IF(K30&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="16">
+        <v>871204810</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="28">
-        <f t="shared" si="0"/>
+      <c r="E30" s="28">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
       <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
         <v>3</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>14</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
       <c r="I30" s="7">
         <v>0</v>
       </c>
-      <c r="J30" s="25">
-        <f>(G30*3)+(H30*9)+(I30*18)+F30</f>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="K30" s="24">
-        <f>F30*5+E30</f>
+      <c r="L30" s="24">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L30" s="17" t="str" cm="1">
-        <f t="array" ref="L30">_xlfn.IFS(A30="4lvl2",IF(J30&gt;=28,"No debe",28-J30), A30="4lvl1",IF(K30&gt;=28,"No debe",28-K30))</f>
+      <c r="M30" s="17" t="str" cm="1">
+        <f t="array" ref="M30">_xlfn.IFS(A30="4lvl2",IF(K30&gt;=28,"No debe",28-K30), A30="4lvl1",IF(L30&gt;=28,"No debe",28-L30))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C31,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D31,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>_xlfn.IFS(A31 = "4lvl2",IF(J31&gt;=28,"Cumplio", "No cumplio"),A31 = "4lvl1",IF(K31&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="16">
+        <v>611721390</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="28">
-        <f t="shared" si="0"/>
+      <c r="E31" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
       <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <v>28</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
         <v>0</v>
       </c>
-      <c r="J31" s="25">
-        <f>(G31*3)+(H31*9)+(I31*18)+F31</f>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K31" s="24">
-        <f>F31*5+E31</f>
+      <c r="L31" s="24">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L31" s="17" t="str" cm="1">
-        <f t="array" ref="L31">_xlfn.IFS(A31="4lvl2",IF(J31&gt;=28,"No debe",28-J31), A31="4lvl1",IF(K31&gt;=28,"No debe",28-K31))</f>
+      <c r="M31" s="17" t="str" cm="1">
+        <f t="array" ref="M31">_xlfn.IFS(A31="4lvl2",IF(K31&gt;=28,"No debe",28-K31), A31="4lvl1",IF(L31&gt;=28,"No debe",28-L31))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C32,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D32,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>_xlfn.IFS(A32 = "4lvl2",IF(J32&gt;=28,"Cumplio", "No cumplio"),A32 = "4lvl1",IF(K32&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="16">
+        <v>414971476</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="28">
-        <f t="shared" si="0"/>
+      <c r="E32" s="28">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
       <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
         <v>19</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
       <c r="I32" s="7">
         <v>0</v>
       </c>
-      <c r="J32" s="25">
-        <f>(G32*3)+(H32*9)+(I32*18)+F32</f>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K32" s="24">
-        <f>F32*5+E32</f>
+      <c r="L32" s="24">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="L32" s="17" t="str" cm="1">
-        <f t="array" ref="L32">_xlfn.IFS(A32="4lvl2",IF(J32&gt;=28,"No debe",28-J32), A32="4lvl1",IF(K32&gt;=28,"No debe",28-K32))</f>
+      <c r="M32" s="17" t="str" cm="1">
+        <f t="array" ref="M32">_xlfn.IFS(A32="4lvl2",IF(K32&gt;=28,"No debe",28-K32), A32="4lvl1",IF(L32&gt;=28,"No debe",28-L32))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C33,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D33,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f>_xlfn.IFS(A33 = "4lvl2",IF(J33&gt;=28,"Cumplio", "No cumplio"),A33 = "4lvl1",IF(K33&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="16">
+        <v>569174090</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="28">
-        <f t="shared" si="0"/>
+      <c r="E33" s="28">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
       <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
         <v>10</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <v>3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25">
-        <f>(G33*3)+(H33*9)+(I33*18)+F33</f>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K33" s="24">
-        <f>F33*5+E33</f>
+      <c r="L33" s="24">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L33" s="17" t="str" cm="1">
-        <f t="array" ref="L33">_xlfn.IFS(A33="4lvl2",IF(J33&gt;=28,"No debe",28-J33), A33="4lvl1",IF(K33&gt;=28,"No debe",28-K33))</f>
+      <c r="M33" s="17" t="str" cm="1">
+        <f t="array" ref="M33">_xlfn.IFS(A33="4lvl2",IF(K33&gt;=28,"No debe",28-K33), A33="4lvl1",IF(L33&gt;=28,"No debe",28-L33))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C34,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D34,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B34" s="16" t="str">
-        <f>_xlfn.IFS(A34 = "4lvl2",IF(J34&gt;=28,"Cumplio", "No cumplio"),A34 = "4lvl1",IF(K34&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="16">
+        <v>1350266631</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="28">
-        <f t="shared" si="0"/>
+      <c r="E34" s="28">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
       <c r="G34" s="7">
         <v>0</v>
       </c>
@@ -8355,168 +8424,180 @@
       <c r="I34" s="7">
         <v>0</v>
       </c>
-      <c r="J34" s="25">
-        <f>(G34*3)+(H34*9)+(I34*18)+F34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="24">
-        <f>F34*5+E34</f>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L34" s="17" cm="1">
-        <f t="array" ref="L34">_xlfn.IFS(A34="4lvl2",IF(J34&gt;=28,"No debe",28-J34), A34="4lvl1",IF(K34&gt;=28,"No debe",28-K34))</f>
+      <c r="M34" s="17" cm="1">
+        <f t="array" ref="M34">_xlfn.IFS(A34="4lvl2",IF(K34&gt;=28,"No debe",28-K34), A34="4lvl1",IF(L34&gt;=28,"No debe",28-L34))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C35,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D35,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f>_xlfn.IFS(A35 = "4lvl2",IF(J35&gt;=28,"Cumplio", "No cumplio"),A35 = "4lvl1",IF(K35&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>No cumplio</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="16">
+        <v>1107848567</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="28">
-        <f t="shared" si="0"/>
+      <c r="E35" s="28">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
       <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
         <v>5</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>2</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
       <c r="I35" s="7">
         <v>0</v>
       </c>
-      <c r="J35" s="25">
-        <f>(G35*3)+(H35*9)+(I35*18)+F35</f>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K35" s="24">
-        <f>F35*5+E35</f>
+      <c r="L35" s="24">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="L35" s="17" cm="1">
-        <f t="array" ref="L35">_xlfn.IFS(A35="4lvl2",IF(J35&gt;=28,"No debe",28-J35), A35="4lvl1",IF(K35&gt;=28,"No debe",28-K35))</f>
+      <c r="M35" s="17" cm="1">
+        <f t="array" ref="M35">_xlfn.IFS(A35="4lvl2",IF(K35&gt;=28,"No debe",28-K35), A35="4lvl1",IF(L35&gt;=28,"No debe",28-L35))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C36,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D36,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B36" s="16" t="str">
-        <f>_xlfn.IFS(A36 = "4lvl2",IF(J36&gt;=28,"Cumplio", "No cumplio"),A36 = "4lvl1",IF(K36&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="1"/>
         <v>Cumplio</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="16">
+        <v>856194125</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="28">
-        <f t="shared" si="0"/>
+      <c r="E36" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
       <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
         <v>28</v>
       </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
       </c>
-      <c r="J36" s="25">
-        <f>(G36*3)+(H36*9)+(I36*18)+F36</f>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K36" s="24">
-        <f>F36*5+E36</f>
+      <c r="L36" s="24">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L36" s="17" t="str" cm="1">
-        <f t="array" ref="L36">_xlfn.IFS(A36="4lvl2",IF(J36&gt;=28,"No debe",28-J36), A36="4lvl1",IF(K36&gt;=28,"No debe",28-K36))</f>
+      <c r="M36" s="17" t="str" cm="1">
+        <f t="array" ref="M36">_xlfn.IFS(A36="4lvl2",IF(K36&gt;=28,"No debe",28-K36), A36="4lvl1",IF(L36&gt;=28,"No debe",28-L36))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C37,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D37,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f>_xlfn.IFS(A37 = "4lvl2",IF(J37&gt;=28,"Cumplio", "No cumplio"),A37 = "4lvl1",IF(K37&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" ref="B37:B68" si="5">_xlfn.IFS(A37 = "4lvl2",IF(K37&gt;=28,"Cumplio", "No cumplio"),A37 = "4lvl1",IF(L37&gt;= 28,"Cumplio","No cumplio"))</f>
         <v>Cumplio</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="16">
+        <v>967393022</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="28">
-        <f t="shared" si="0"/>
+      <c r="E37" s="28">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>34</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
       <c r="I37" s="7">
         <v>0</v>
       </c>
-      <c r="J37" s="25">
-        <f>(G37*3)+(H37*9)+(I37*18)+F37</f>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="25">
+        <f t="shared" ref="K37:K68" si="6">(H37*3)+(I37*9)+(J37*18)+G37</f>
         <v>37</v>
       </c>
-      <c r="K37" s="24">
-        <f>F37*5+E37</f>
+      <c r="L37" s="24">
+        <f t="shared" ref="L37:L68" si="7">G37*5+F37</f>
         <v>171</v>
       </c>
-      <c r="L37" s="17" t="str" cm="1">
-        <f t="array" ref="L37">_xlfn.IFS(A37="4lvl2",IF(J37&gt;=28,"No debe",28-J37), A37="4lvl1",IF(K37&gt;=28,"No debe",28-K37))</f>
+      <c r="M37" s="17" t="str" cm="1">
+        <f t="array" ref="M37">_xlfn.IFS(A37="4lvl2",IF(K37&gt;=28,"No debe",28-K37), A37="4lvl1",IF(L37&gt;=28,"No debe",28-L37))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D38,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f>_xlfn.IFS(A38 = "4lvl2",IF(J38&gt;=28,"Cumplio", "No cumplio"),A38 = "4lvl1",IF(K38&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="16">
+        <v>1254165847</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="E38" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F38" s="7">
@@ -8531,36 +8612,39 @@
       <c r="I38" s="7">
         <v>0</v>
       </c>
-      <c r="J38" s="25">
-        <f>(G38*3)+(H38*9)+(I38*18)+F38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="24">
-        <f>F38*5+E38</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="17" cm="1">
-        <f t="array" ref="L38">_xlfn.IFS(A38="4lvl2",IF(J38&gt;=28,"No debe",28-J38), A38="4lvl1",IF(K38&gt;=28,"No debe",28-K38))</f>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17" cm="1">
+        <f t="array" ref="M38">_xlfn.IFS(A38="4lvl2",IF(K38&gt;=28,"No debe",28-K38), A38="4lvl1",IF(L38&gt;=28,"No debe",28-L38))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D39,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f>_xlfn.IFS(A39 = "4lvl2",IF(J39&gt;=28,"Cumplio", "No cumplio"),A39 = "4lvl1",IF(K39&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="16">
+        <v>809373819</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="E39" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39" s="7">
@@ -8575,41 +8659,44 @@
       <c r="I39" s="7">
         <v>0</v>
       </c>
-      <c r="J39" s="25">
-        <f>(G39*3)+(H39*9)+(I39*18)+F39</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="24">
-        <f>F39*5+E39</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="17" cm="1">
-        <f t="array" ref="L39">_xlfn.IFS(A39="4lvl2",IF(J39&gt;=28,"No debe",28-J39), A39="4lvl1",IF(K39&gt;=28,"No debe",28-K39))</f>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="17" cm="1">
+        <f t="array" ref="M39">_xlfn.IFS(A39="4lvl2",IF(K39&gt;=28,"No debe",28-K39), A39="4lvl1",IF(L39&gt;=28,"No debe",28-L39))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D40,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f>_xlfn.IFS(A40 = "4lvl2",IF(J40&gt;=28,"Cumplio", "No cumplio"),A40 = "4lvl1",IF(K40&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="16">
+        <v>1301455049</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="28">
-        <f t="shared" si="0"/>
+      <c r="E40" s="28">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
       <c r="G40" s="7">
         <v>0</v>
       </c>
@@ -8619,439 +8706,469 @@
       <c r="I40" s="7">
         <v>0</v>
       </c>
-      <c r="J40" s="25">
-        <f>(G40*3)+(H40*9)+(I40*18)+F40</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="24">
-        <f>F40*5+E40</f>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="24">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="L40" s="17" cm="1">
-        <f t="array" ref="L40">_xlfn.IFS(A40="4lvl2",IF(J40&gt;=28,"No debe",28-J40), A40="4lvl1",IF(K40&gt;=28,"No debe",28-K40))</f>
+      <c r="M40" s="17" cm="1">
+        <f t="array" ref="M40">_xlfn.IFS(A40="4lvl2",IF(K40&gt;=28,"No debe",28-K40), A40="4lvl1",IF(L40&gt;=28,"No debe",28-L40))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C41,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D41,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f>_xlfn.IFS(A41 = "4lvl2",IF(J41&gt;=28,"Cumplio", "No cumplio"),A41 = "4lvl1",IF(K41&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="16">
+        <v>1396680434</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="28">
-        <f t="shared" si="0"/>
+      <c r="E41" s="28">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
       <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
         <v>25</v>
       </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
       </c>
-      <c r="J41" s="25">
-        <f>(G41*3)+(H41*9)+(I41*18)+F41</f>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K41" s="24">
-        <f>F41*5+E41</f>
+      <c r="L41" s="24">
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="L41" s="17" cm="1">
-        <f t="array" ref="L41">_xlfn.IFS(A41="4lvl2",IF(J41&gt;=28,"No debe",28-J41), A41="4lvl1",IF(K41&gt;=28,"No debe",28-K41))</f>
+      <c r="M41" s="17" cm="1">
+        <f t="array" ref="M41">_xlfn.IFS(A41="4lvl2",IF(K41&gt;=28,"No debe",28-K41), A41="4lvl1",IF(L41&gt;=28,"No debe",28-L41))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C42,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D42,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f>_xlfn.IFS(A42 = "4lvl2",IF(J42&gt;=28,"Cumplio", "No cumplio"),A42 = "4lvl1",IF(K42&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="16">
+        <v>1405190902</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="28">
-        <f t="shared" si="0"/>
+      <c r="E42" s="28">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
       <c r="F42" s="7">
         <v>0</v>
       </c>
       <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
         <v>6</v>
       </c>
-      <c r="H42" s="7">
+      <c r="I42" s="7">
         <v>2</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="25">
-        <f>(G42*3)+(H42*9)+(I42*18)+F42</f>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="25">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K42" s="24">
-        <f>F42*5+E42</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="17" t="str" cm="1">
-        <f t="array" ref="L42">_xlfn.IFS(A42="4lvl2",IF(J42&gt;=28,"No debe",28-J42), A42="4lvl1",IF(K42&gt;=28,"No debe",28-K42))</f>
+      <c r="L42" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="17" t="str" cm="1">
+        <f t="array" ref="M42">_xlfn.IFS(A42="4lvl2",IF(K42&gt;=28,"No debe",28-K42), A42="4lvl1",IF(L42&gt;=28,"No debe",28-L42))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C43,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D43,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B43" s="16" t="str">
-        <f>_xlfn.IFS(A43 = "4lvl2",IF(J43&gt;=28,"Cumplio", "No cumplio"),A43 = "4lvl1",IF(K43&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="16">
+        <v>670789855</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="28">
-        <f t="shared" si="0"/>
+      <c r="E43" s="28">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
       <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
       </c>
-      <c r="J43" s="25">
-        <f>(G43*3)+(H43*9)+(I43*18)+F43</f>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="25">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K43" s="24">
-        <f>F43*5+E43</f>
+      <c r="L43" s="24">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="L43" s="17" cm="1">
-        <f t="array" ref="L43">_xlfn.IFS(A43="4lvl2",IF(J43&gt;=28,"No debe",28-J43), A43="4lvl1",IF(K43&gt;=28,"No debe",28-K43))</f>
+      <c r="M43" s="17" cm="1">
+        <f t="array" ref="M43">_xlfn.IFS(A43="4lvl2",IF(K43&gt;=28,"No debe",28-K43), A43="4lvl1",IF(L43&gt;=28,"No debe",28-L43))</f>
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C44,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D44,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B44" s="16" t="str">
-        <f>_xlfn.IFS(A44 = "4lvl2",IF(J44&gt;=28,"Cumplio", "No cumplio"),A44 = "4lvl1",IF(K44&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="16">
+        <v>687913504</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="28">
-        <f t="shared" si="0"/>
+      <c r="E44" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
       <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
         <v>28</v>
       </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
-      <c r="J44" s="25">
-        <f>(G44*3)+(H44*9)+(I44*18)+F44</f>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K44" s="24">
-        <f>F44*5+E44</f>
+      <c r="L44" s="24">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="L44" s="17" t="str" cm="1">
-        <f t="array" ref="L44">_xlfn.IFS(A44="4lvl2",IF(J44&gt;=28,"No debe",28-J44), A44="4lvl1",IF(K44&gt;=28,"No debe",28-K44))</f>
+      <c r="M44" s="17" t="str" cm="1">
+        <f t="array" ref="M44">_xlfn.IFS(A44="4lvl2",IF(K44&gt;=28,"No debe",28-K44), A44="4lvl1",IF(L44&gt;=28,"No debe",28-L44))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C45,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D45,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B45" s="16" t="str">
-        <f>_xlfn.IFS(A45 = "4lvl2",IF(J45&gt;=28,"Cumplio", "No cumplio"),A45 = "4lvl1",IF(K45&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="16">
+        <v>677690297</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="28">
-        <f t="shared" si="0"/>
+      <c r="E45" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
       <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
         <v>28</v>
       </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
         <v>0</v>
       </c>
-      <c r="J45" s="25">
-        <f>(G45*3)+(H45*9)+(I45*18)+F45</f>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K45" s="24">
-        <f>F45*5+E45</f>
+      <c r="L45" s="24">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="L45" s="17" t="str" cm="1">
-        <f t="array" ref="L45">_xlfn.IFS(A45="4lvl2",IF(J45&gt;=28,"No debe",28-J45), A45="4lvl1",IF(K45&gt;=28,"No debe",28-K45))</f>
+      <c r="M45" s="17" t="str" cm="1">
+        <f t="array" ref="M45">_xlfn.IFS(A45="4lvl2",IF(K45&gt;=28,"No debe",28-K45), A45="4lvl1",IF(L45&gt;=28,"No debe",28-L45))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C46,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D46,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B46" s="16" t="str">
-        <f>_xlfn.IFS(A46 = "4lvl2",IF(J46&gt;=28,"Cumplio", "No cumplio"),A46 = "4lvl1",IF(K46&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="16">
+        <v>617539539</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="28">
-        <f t="shared" si="0"/>
+      <c r="E46" s="28">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
       <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
         <v>11</v>
       </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
       <c r="H46" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
         <v>2</v>
       </c>
-      <c r="J46" s="25">
-        <f>(G46*3)+(H46*9)+(I46*18)+F46</f>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="25">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="K46" s="24">
-        <f>F46*5+E46</f>
+      <c r="L46" s="24">
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="L46" s="17" t="str" cm="1">
-        <f t="array" ref="L46">_xlfn.IFS(A46="4lvl2",IF(J46&gt;=28,"No debe",28-J46), A46="4lvl1",IF(K46&gt;=28,"No debe",28-K46))</f>
+      <c r="M46" s="17" t="str" cm="1">
+        <f t="array" ref="M46">_xlfn.IFS(A46="4lvl2",IF(K46&gt;=28,"No debe",28-K46), A46="4lvl1",IF(L46&gt;=28,"No debe",28-L46))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C47,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D47,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B47" s="16" t="str">
-        <f>_xlfn.IFS(A47 = "4lvl2",IF(J47&gt;=28,"Cumplio", "No cumplio"),A47 = "4lvl1",IF(K47&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="16">
+        <v>756405275</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="28">
-        <f t="shared" si="0"/>
+      <c r="E47" s="28">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
       <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
         <v>16</v>
       </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
         <v>0</v>
       </c>
-      <c r="J47" s="25">
-        <f>(G47*3)+(H47*9)+(I47*18)+F47</f>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="25">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K47" s="24">
-        <f>F47*5+E47</f>
+      <c r="L47" s="24">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="L47" s="17" cm="1">
-        <f t="array" ref="L47">_xlfn.IFS(A47="4lvl2",IF(J47&gt;=28,"No debe",28-J47), A47="4lvl1",IF(K47&gt;=28,"No debe",28-K47))</f>
+      <c r="M47" s="17" cm="1">
+        <f t="array" ref="M47">_xlfn.IFS(A47="4lvl2",IF(K47&gt;=28,"No debe",28-K47), A47="4lvl1",IF(L47&gt;=28,"No debe",28-L47))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C48,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D48,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B48" s="16" t="str">
-        <f>_xlfn.IFS(A48 = "4lvl2",IF(J48&gt;=28,"Cumplio", "No cumplio"),A48 = "4lvl1",IF(K48&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="16">
+        <v>871943702</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="28">
-        <f t="shared" si="0"/>
+      <c r="E48" s="28">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
       <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
         <v>2</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>9</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
       <c r="I48" s="7">
         <v>0</v>
       </c>
-      <c r="J48" s="25">
-        <f>(G48*3)+(H48*9)+(I48*18)+F48</f>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="25">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="K48" s="24">
-        <f>F48*5+E48</f>
+      <c r="L48" s="24">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L48" s="17" t="str" cm="1">
-        <f t="array" ref="L48">_xlfn.IFS(A48="4lvl2",IF(J48&gt;=28,"No debe",28-J48), A48="4lvl1",IF(K48&gt;=28,"No debe",28-K48))</f>
+      <c r="M48" s="17" t="str" cm="1">
+        <f t="array" ref="M48">_xlfn.IFS(A48="4lvl2",IF(K48&gt;=28,"No debe",28-K48), A48="4lvl1",IF(L48&gt;=28,"No debe",28-L48))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C49,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D49,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B49" s="16" t="str">
-        <f>_xlfn.IFS(A49 = "4lvl2",IF(J49&gt;=28,"Cumplio", "No cumplio"),A49 = "4lvl1",IF(K49&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="16">
+        <v>376376295</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="28">
-        <f t="shared" si="0"/>
+      <c r="E49" s="28">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
       <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
         <v>5</v>
       </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
       </c>
-      <c r="J49" s="25">
-        <f>(G49*3)+(H49*9)+(I49*18)+F49</f>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="25">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K49" s="24">
-        <f>F49*5+E49</f>
+      <c r="L49" s="24">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="L49" s="17" cm="1">
-        <f t="array" ref="L49">_xlfn.IFS(A49="4lvl2",IF(J49&gt;=28,"No debe",28-J49), A49="4lvl1",IF(K49&gt;=28,"No debe",28-K49))</f>
+      <c r="M49" s="17" cm="1">
+        <f t="array" ref="M49">_xlfn.IFS(A49="4lvl2",IF(K49&gt;=28,"No debe",28-K49), A49="4lvl1",IF(L49&gt;=28,"No debe",28-L49))</f>
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C50,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D50,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B50" s="16" t="str">
-        <f>_xlfn.IFS(A50 = "4lvl2",IF(J50&gt;=28,"Cumplio", "No cumplio"),A50 = "4lvl1",IF(K50&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="16">
+        <v>1917368618</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="28">
-        <f t="shared" si="0"/>
+      <c r="E50" s="28">
+        <f t="shared" si="4"/>
         <v>24</v>
-      </c>
-      <c r="E50" s="7">
-        <v>12</v>
       </c>
       <c r="F50" s="7">
         <v>12</v>
       </c>
       <c r="G50" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -9059,131 +9176,140 @@
       <c r="I50" s="7">
         <v>0</v>
       </c>
-      <c r="J50" s="25">
-        <f>(G50*3)+(H50*9)+(I50*18)+F50</f>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="K50" s="24">
-        <f>F50*5+E50</f>
+      <c r="L50" s="24">
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="L50" s="17" t="str" cm="1">
-        <f t="array" ref="L50">_xlfn.IFS(A50="4lvl2",IF(J50&gt;=28,"No debe",28-J50), A50="4lvl1",IF(K50&gt;=28,"No debe",28-K50))</f>
+      <c r="M50" s="17" t="str" cm="1">
+        <f t="array" ref="M50">_xlfn.IFS(A50="4lvl2",IF(K50&gt;=28,"No debe",28-K50), A50="4lvl1",IF(L50&gt;=28,"No debe",28-L50))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C51,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D51,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B51" s="16" t="str">
-        <f>_xlfn.IFS(A51 = "4lvl2",IF(J51&gt;=28,"Cumplio", "No cumplio"),A51 = "4lvl1",IF(K51&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="16">
+        <v>415316031</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="28">
-        <f t="shared" si="0"/>
+      <c r="E51" s="28">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
       <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
         <v>25</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
       <c r="I51" s="7">
         <v>0</v>
       </c>
-      <c r="J51" s="25">
-        <f>(G51*3)+(H51*9)+(I51*18)+F51</f>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K51" s="24">
-        <f>F51*5+E51</f>
+      <c r="L51" s="24">
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="L51" s="17" t="str" cm="1">
-        <f t="array" ref="L51">_xlfn.IFS(A51="4lvl2",IF(J51&gt;=28,"No debe",28-J51), A51="4lvl1",IF(K51&gt;=28,"No debe",28-K51))</f>
+      <c r="M51" s="17" t="str" cm="1">
+        <f t="array" ref="M51">_xlfn.IFS(A51="4lvl2",IF(K51&gt;=28,"No debe",28-K51), A51="4lvl1",IF(L51&gt;=28,"No debe",28-L51))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C52,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D52,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B52" s="16" t="str">
-        <f>_xlfn.IFS(A52 = "4lvl2",IF(J52&gt;=28,"Cumplio", "No cumplio"),A52 = "4lvl1",IF(K52&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="16">
+        <v>1023770253</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="28">
-        <f t="shared" si="0"/>
+      <c r="E52" s="28">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
       <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
         <v>7</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>9</v>
       </c>
-      <c r="H52" s="7">
+      <c r="I52" s="7">
         <v>2</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="25">
-        <f>(G52*3)+(H52*9)+(I52*18)+F52</f>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="25">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="K52" s="24">
-        <f>F52*5+E52</f>
+      <c r="L52" s="24">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="L52" s="17" t="str" cm="1">
-        <f t="array" ref="L52">_xlfn.IFS(A52="4lvl2",IF(J52&gt;=28,"No debe",28-J52), A52="4lvl1",IF(K52&gt;=28,"No debe",28-K52))</f>
+      <c r="M52" s="17" t="str" cm="1">
+        <f t="array" ref="M52">_xlfn.IFS(A52="4lvl2",IF(K52&gt;=28,"No debe",28-K52), A52="4lvl1",IF(L52&gt;=28,"No debe",28-L52))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C53,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D53,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B53" s="16" t="str">
-        <f>_xlfn.IFS(A53 = "4lvl2",IF(J53&gt;=28,"Cumplio", "No cumplio"),A53 = "4lvl1",IF(K53&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="16">
+        <v>1919512898</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28">
-        <f t="shared" si="0"/>
+      <c r="E53" s="28">
+        <f t="shared" si="4"/>
         <v>10</v>
-      </c>
-      <c r="E53" s="7">
-        <v>5</v>
       </c>
       <c r="F53" s="7">
         <v>5</v>
       </c>
       <c r="G53" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -9191,745 +9317,796 @@
       <c r="I53" s="7">
         <v>0</v>
       </c>
-      <c r="J53" s="25">
-        <f>(G53*3)+(H53*9)+(I53*18)+F53</f>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="25">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K53" s="24">
-        <f>F53*5+E53</f>
+      <c r="L53" s="24">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="L53" s="17" t="str" cm="1">
-        <f t="array" ref="L53">_xlfn.IFS(A53="4lvl2",IF(J53&gt;=28,"No debe",28-J53), A53="4lvl1",IF(K53&gt;=28,"No debe",28-K53))</f>
+      <c r="M53" s="17" t="str" cm="1">
+        <f t="array" ref="M53">_xlfn.IFS(A53="4lvl2",IF(K53&gt;=28,"No debe",28-K53), A53="4lvl1",IF(L53&gt;=28,"No debe",28-L53))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C54,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D54,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B54" s="16" t="str">
-        <f>_xlfn.IFS(A54 = "4lvl2",IF(J54&gt;=28,"Cumplio", "No cumplio"),A54 = "4lvl1",IF(K54&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="16">
+        <v>723790823</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="28">
-        <f t="shared" si="0"/>
+      <c r="E54" s="28">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
       <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
         <v>36</v>
       </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
-      <c r="J54" s="25">
-        <f>(G54*3)+(H54*9)+(I54*18)+F54</f>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="25">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K54" s="24">
-        <f>F54*5+E54</f>
+      <c r="L54" s="24">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="L54" s="17" t="str" cm="1">
-        <f t="array" ref="L54">_xlfn.IFS(A54="4lvl2",IF(J54&gt;=28,"No debe",28-J54), A54="4lvl1",IF(K54&gt;=28,"No debe",28-K54))</f>
+      <c r="M54" s="17" t="str" cm="1">
+        <f t="array" ref="M54">_xlfn.IFS(A54="4lvl2",IF(K54&gt;=28,"No debe",28-K54), A54="4lvl1",IF(L54&gt;=28,"No debe",28-L54))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C55,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D55,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B55" s="16" t="str">
-        <f>_xlfn.IFS(A55 = "4lvl2",IF(J55&gt;=28,"Cumplio", "No cumplio"),A55 = "4lvl1",IF(K55&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="16">
+        <v>870835400</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="28">
-        <f t="shared" si="0"/>
+      <c r="E55" s="28">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
       <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
         <v>16</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>6</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
       <c r="I55" s="7">
         <v>0</v>
       </c>
-      <c r="J55" s="25">
-        <f>(G55*3)+(H55*9)+(I55*18)+F55</f>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="K55" s="24">
-        <f>F55*5+E55</f>
+      <c r="L55" s="24">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="L55" s="17" t="str" cm="1">
-        <f t="array" ref="L55">_xlfn.IFS(A55="4lvl2",IF(J55&gt;=28,"No debe",28-J55), A55="4lvl1",IF(K55&gt;=28,"No debe",28-K55))</f>
+      <c r="M55" s="17" t="str" cm="1">
+        <f t="array" ref="M55">_xlfn.IFS(A55="4lvl2",IF(K55&gt;=28,"No debe",28-K55), A55="4lvl1",IF(L55&gt;=28,"No debe",28-L55))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C56,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D56,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B56" s="16" t="str">
-        <f>_xlfn.IFS(A56 = "4lvl2",IF(J56&gt;=28,"Cumplio", "No cumplio"),A56 = "4lvl1",IF(K56&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="16">
+        <v>658843231</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="28">
-        <f t="shared" si="0"/>
+      <c r="E56" s="28">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
       <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
         <v>12</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>7</v>
       </c>
-      <c r="H56" s="7">
+      <c r="I56" s="7">
         <v>1</v>
       </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="25">
-        <f>(G56*3)+(H56*9)+(I56*18)+F56</f>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="25">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="K56" s="24">
-        <f>F56*5+E56</f>
+      <c r="L56" s="24">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="L56" s="17" t="str" cm="1">
-        <f t="array" ref="L56">_xlfn.IFS(A56="4lvl2",IF(J56&gt;=28,"No debe",28-J56), A56="4lvl1",IF(K56&gt;=28,"No debe",28-K56))</f>
+      <c r="M56" s="17" t="str" cm="1">
+        <f t="array" ref="M56">_xlfn.IFS(A56="4lvl2",IF(K56&gt;=28,"No debe",28-K56), A56="4lvl1",IF(L56&gt;=28,"No debe",28-L56))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C57,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D57,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B57" s="16" t="str">
-        <f>_xlfn.IFS(A57 = "4lvl2",IF(J57&gt;=28,"Cumplio", "No cumplio"),A57 = "4lvl1",IF(K57&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="16">
+        <v>414982809</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="28">
-        <f t="shared" si="0"/>
+      <c r="E57" s="28">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
       <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
         <v>29</v>
       </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
         <v>0</v>
       </c>
-      <c r="J57" s="25">
-        <f>(G57*3)+(H57*9)+(I57*18)+F57</f>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="25">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="K57" s="24">
-        <f>F57*5+E57</f>
+      <c r="L57" s="24">
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="L57" s="17" t="str" cm="1">
-        <f t="array" ref="L57">_xlfn.IFS(A57="4lvl2",IF(J57&gt;=28,"No debe",28-J57), A57="4lvl1",IF(K57&gt;=28,"No debe",28-K57))</f>
+      <c r="M57" s="17" t="str" cm="1">
+        <f t="array" ref="M57">_xlfn.IFS(A57="4lvl2",IF(K57&gt;=28,"No debe",28-K57), A57="4lvl1",IF(L57&gt;=28,"No debe",28-L57))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C58,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D58,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B58" s="16" t="str">
-        <f>_xlfn.IFS(A58 = "4lvl2",IF(J58&gt;=28,"Cumplio", "No cumplio"),A58 = "4lvl1",IF(K58&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="16">
+        <v>738411590</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="28">
-        <f t="shared" si="0"/>
+      <c r="E58" s="28">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
       <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
         <v>22</v>
       </c>
-      <c r="G58" s="7">
+      <c r="H58" s="7">
         <v>5</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
       <c r="I58" s="7">
         <v>0</v>
       </c>
-      <c r="J58" s="25">
-        <f>(G58*3)+(H58*9)+(I58*18)+F58</f>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="25">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="K58" s="24">
-        <f>F58*5+E58</f>
+      <c r="L58" s="24">
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="L58" s="17" t="str" cm="1">
-        <f t="array" ref="L58">_xlfn.IFS(A58="4lvl2",IF(J58&gt;=28,"No debe",28-J58), A58="4lvl1",IF(K58&gt;=28,"No debe",28-K58))</f>
+      <c r="M58" s="17" t="str" cm="1">
+        <f t="array" ref="M58">_xlfn.IFS(A58="4lvl2",IF(K58&gt;=28,"No debe",28-K58), A58="4lvl1",IF(L58&gt;=28,"No debe",28-L58))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C59,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D59,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B59" s="16" t="str">
-        <f>_xlfn.IFS(A59 = "4lvl2",IF(J59&gt;=28,"Cumplio", "No cumplio"),A59 = "4lvl1",IF(K59&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="16">
+        <v>940947273</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="28">
-        <f t="shared" si="0"/>
+      <c r="E59" s="28">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="E59" s="7">
-        <v>0</v>
-      </c>
       <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
         <v>36</v>
       </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
         <v>0</v>
       </c>
-      <c r="J59" s="25">
-        <f>(G59*3)+(H59*9)+(I59*18)+F59</f>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="25">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K59" s="24">
-        <f>F59*5+E59</f>
+      <c r="L59" s="24">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="L59" s="17" t="str" cm="1">
-        <f t="array" ref="L59">_xlfn.IFS(A59="4lvl2",IF(J59&gt;=28,"No debe",28-J59), A59="4lvl1",IF(K59&gt;=28,"No debe",28-K59))</f>
+      <c r="M59" s="17" t="str" cm="1">
+        <f t="array" ref="M59">_xlfn.IFS(A59="4lvl2",IF(K59&gt;=28,"No debe",28-K59), A59="4lvl1",IF(L59&gt;=28,"No debe",28-L59))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C60,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D60,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B60" s="16" t="str">
-        <f>_xlfn.IFS(A60 = "4lvl2",IF(J60&gt;=28,"Cumplio", "No cumplio"),A60 = "4lvl1",IF(K60&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="16">
+        <v>389241669</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="28">
-        <f t="shared" si="0"/>
+      <c r="E60" s="28">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
       <c r="F60" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G60" s="7">
         <v>7</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I60" s="7">
         <v>0</v>
       </c>
-      <c r="J60" s="25">
-        <f>(G60*3)+(H60*9)+(I60*18)+F60</f>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K60" s="24">
-        <f>F60*5+E60</f>
+      <c r="L60" s="24">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="L60" s="17" t="str" cm="1">
-        <f t="array" ref="L60">_xlfn.IFS(A60="4lvl2",IF(J60&gt;=28,"No debe",28-J60), A60="4lvl1",IF(K60&gt;=28,"No debe",28-K60))</f>
+      <c r="M60" s="17" t="str" cm="1">
+        <f t="array" ref="M60">_xlfn.IFS(A60="4lvl2",IF(K60&gt;=28,"No debe",28-K60), A60="4lvl1",IF(L60&gt;=28,"No debe",28-L60))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C61,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D61,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B61" s="16" t="str">
-        <f>_xlfn.IFS(A61 = "4lvl2",IF(J61&gt;=28,"Cumplio", "No cumplio"),A61 = "4lvl1",IF(K61&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="16">
+        <v>434177298</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="28">
-        <f t="shared" si="0"/>
+      <c r="E61" s="28">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
       <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
         <v>11</v>
       </c>
-      <c r="G61" s="7">
+      <c r="H61" s="7">
         <v>8</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
       <c r="I61" s="7">
         <v>0</v>
       </c>
-      <c r="J61" s="25">
-        <f>(G61*3)+(H61*9)+(I61*18)+F61</f>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="25">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="K61" s="24">
-        <f>F61*5+E61</f>
+      <c r="L61" s="24">
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="L61" s="17" t="str" cm="1">
-        <f t="array" ref="L61">_xlfn.IFS(A61="4lvl2",IF(J61&gt;=28,"No debe",28-J61), A61="4lvl1",IF(K61&gt;=28,"No debe",28-K61))</f>
+      <c r="M61" s="17" t="str" cm="1">
+        <f t="array" ref="M61">_xlfn.IFS(A61="4lvl2",IF(K61&gt;=28,"No debe",28-K61), A61="4lvl1",IF(L61&gt;=28,"No debe",28-L61))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C62,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D62,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B62" s="16" t="str">
-        <f>_xlfn.IFS(A62 = "4lvl2",IF(J62&gt;=28,"Cumplio", "No cumplio"),A62 = "4lvl1",IF(K62&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="16">
+        <v>580219843</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="28">
-        <f t="shared" si="0"/>
+      <c r="E62" s="28">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
       <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
         <v>13</v>
       </c>
-      <c r="G62" s="7">
+      <c r="H62" s="7">
         <v>2</v>
       </c>
-      <c r="H62" s="7">
+      <c r="I62" s="7">
         <v>1</v>
       </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="25">
-        <f>(G62*3)+(H62*9)+(I62*18)+F62</f>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K62" s="24">
-        <f>F62*5+E62</f>
+      <c r="L62" s="24">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="L62" s="17" t="str" cm="1">
-        <f t="array" ref="L62">_xlfn.IFS(A62="4lvl2",IF(J62&gt;=28,"No debe",28-J62), A62="4lvl1",IF(K62&gt;=28,"No debe",28-K62))</f>
+      <c r="M62" s="17" t="str" cm="1">
+        <f t="array" ref="M62">_xlfn.IFS(A62="4lvl2",IF(K62&gt;=28,"No debe",28-K62), A62="4lvl1",IF(L62&gt;=28,"No debe",28-L62))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C63,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D63,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B63" s="16" t="str">
-        <f>_xlfn.IFS(A63 = "4lvl2",IF(J63&gt;=28,"Cumplio", "No cumplio"),A63 = "4lvl1",IF(K63&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="16">
+        <v>502988594</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="28">
-        <f t="shared" si="0"/>
+      <c r="E63" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
       <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
         <v>28</v>
       </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
-      <c r="J63" s="25">
-        <f>(G63*3)+(H63*9)+(I63*18)+F63</f>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K63" s="24">
-        <f>F63*5+E63</f>
+      <c r="L63" s="24">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="L63" s="17" t="str" cm="1">
-        <f t="array" ref="L63">_xlfn.IFS(A63="4lvl2",IF(J63&gt;=28,"No debe",28-J63), A63="4lvl1",IF(K63&gt;=28,"No debe",28-K63))</f>
+      <c r="M63" s="17" t="str" cm="1">
+        <f t="array" ref="M63">_xlfn.IFS(A63="4lvl2",IF(K63&gt;=28,"No debe",28-K63), A63="4lvl1",IF(L63&gt;=28,"No debe",28-L63))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C64,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D64,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B64" s="16" t="str">
-        <f>_xlfn.IFS(A64 = "4lvl2",IF(J64&gt;=28,"Cumplio", "No cumplio"),A64 = "4lvl1",IF(K64&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="16">
+        <v>613063847</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="28">
-        <f t="shared" si="0"/>
+      <c r="E64" s="28">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
       <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
         <v>13</v>
       </c>
-      <c r="G64" s="7">
+      <c r="H64" s="7">
         <v>2</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
-      <c r="J64" s="25">
-        <f>(G64*3)+(H64*9)+(I64*18)+F64</f>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="25">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="K64" s="24">
-        <f>F64*5+E64</f>
+      <c r="L64" s="24">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="L64" s="17" cm="1">
-        <f t="array" ref="L64">_xlfn.IFS(A64="4lvl2",IF(J64&gt;=28,"No debe",28-J64), A64="4lvl1",IF(K64&gt;=28,"No debe",28-K64))</f>
+      <c r="M64" s="17" cm="1">
+        <f t="array" ref="M64">_xlfn.IFS(A64="4lvl2",IF(K64&gt;=28,"No debe",28-K64), A64="4lvl1",IF(L64&gt;=28,"No debe",28-L64))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C65,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D65,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B65" s="16" t="str">
-        <f>_xlfn.IFS(A65 = "4lvl2",IF(J65&gt;=28,"Cumplio", "No cumplio"),A65 = "4lvl1",IF(K65&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>No cumplio</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="16">
+        <v>830977422</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="28">
-        <f t="shared" si="0"/>
+      <c r="E65" s="28">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
       <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
         <v>2</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H65" s="7">
         <v>1</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
       <c r="I65" s="7">
         <v>0</v>
       </c>
-      <c r="J65" s="25">
-        <f>(G65*3)+(H65*9)+(I65*18)+F65</f>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="25">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K65" s="24">
-        <f>F65*5+E65</f>
+      <c r="L65" s="24">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L65" s="17" cm="1">
-        <f t="array" ref="L65">_xlfn.IFS(A65="4lvl2",IF(J65&gt;=28,"No debe",28-J65), A65="4lvl1",IF(K65&gt;=28,"No debe",28-K65))</f>
+      <c r="M65" s="17" cm="1">
+        <f t="array" ref="M65">_xlfn.IFS(A65="4lvl2",IF(K65&gt;=28,"No debe",28-K65), A65="4lvl1",IF(L65&gt;=28,"No debe",28-L65))</f>
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C66,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D66,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B66" s="16" t="str">
-        <f>_xlfn.IFS(A66 = "4lvl2",IF(J66&gt;=28,"Cumplio", "No cumplio"),A66 = "4lvl1",IF(K66&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="16">
+        <v>700042867</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="28">
-        <f t="shared" si="0"/>
+      <c r="E66" s="28">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
       <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
         <v>28</v>
       </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
         <v>0</v>
       </c>
-      <c r="J66" s="25">
-        <f>(G66*3)+(H66*9)+(I66*18)+F66</f>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="25">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K66" s="24">
-        <f>F66*5+E66</f>
+      <c r="L66" s="24">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="L66" s="17" t="str" cm="1">
-        <f t="array" ref="L66">_xlfn.IFS(A66="4lvl2",IF(J66&gt;=28,"No debe",28-J66), A66="4lvl1",IF(K66&gt;=28,"No debe",28-K66))</f>
+      <c r="M66" s="17" t="str" cm="1">
+        <f t="array" ref="M66">_xlfn.IFS(A66="4lvl2",IF(K66&gt;=28,"No debe",28-K66), A66="4lvl1",IF(L66&gt;=28,"No debe",28-L66))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C67,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D67,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B67" s="16" t="str">
-        <f>_xlfn.IFS(A67 = "4lvl2",IF(J67&gt;=28,"Cumplio", "No cumplio"),A67 = "4lvl1",IF(K67&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="16">
+        <v>723470235</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="28">
-        <f t="shared" si="0"/>
+      <c r="E67" s="28">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
       <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
         <v>36</v>
       </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
         <v>0</v>
       </c>
-      <c r="J67" s="25">
-        <f>(G67*3)+(H67*9)+(I67*18)+F67</f>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="25">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K67" s="24">
-        <f>F67*5+E67</f>
+      <c r="L67" s="24">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="L67" s="17" t="str" cm="1">
-        <f t="array" ref="L67">_xlfn.IFS(A67="4lvl2",IF(J67&gt;=28,"No debe",28-J67), A67="4lvl1",IF(K67&gt;=28,"No debe",28-K67))</f>
+      <c r="M67" s="17" t="str" cm="1">
+        <f t="array" ref="M67">_xlfn.IFS(A67="4lvl2",IF(K67&gt;=28,"No debe",28-K67), A67="4lvl1",IF(L67&gt;=28,"No debe",28-L67))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C68,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D68,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B68" s="16" t="str">
-        <f>_xlfn.IFS(A68 = "4lvl2",IF(J68&gt;=28,"Cumplio", "No cumplio"),A68 = "4lvl1",IF(K68&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="5"/>
         <v>Cumplio</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="16">
+        <v>1268142112</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="28">
-        <f t="shared" si="0"/>
+      <c r="E68" s="28">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
       <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
         <v>29</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
         <v>0</v>
       </c>
-      <c r="J68" s="25">
-        <f>(G68*3)+(H68*9)+(I68*18)+F68</f>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="25">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="K68" s="24">
-        <f>F68*5+E68</f>
+      <c r="L68" s="24">
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="L68" s="17" t="str" cm="1">
-        <f t="array" ref="L68">_xlfn.IFS(A68="4lvl2",IF(J68&gt;=28,"No debe",28-J68), A68="4lvl1",IF(K68&gt;=28,"No debe",28-K68))</f>
+      <c r="M68" s="17" t="str" cm="1">
+        <f t="array" ref="M68">_xlfn.IFS(A68="4lvl2",IF(K68&gt;=28,"No debe",28-K68), A68="4lvl1",IF(L68&gt;=28,"No debe",28-L68))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C69,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D69,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B69" s="16" t="str">
-        <f>_xlfn.IFS(A69 = "4lvl2",IF(J69&gt;=28,"Cumplio", "No cumplio"),A69 = "4lvl1",IF(K69&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" ref="B69:B100" si="8">_xlfn.IFS(A69 = "4lvl2",IF(K69&gt;=28,"Cumplio", "No cumplio"),A69 = "4lvl1",IF(L69&gt;= 28,"Cumplio","No cumplio"))</f>
         <v>No cumplio</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="16">
+        <v>316274033</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="28">
-        <f t="shared" si="0"/>
+      <c r="E69" s="28">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E69" s="7">
-        <v>0</v>
-      </c>
       <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
         <v>17</v>
       </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
       <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
         <v>1</v>
       </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="25">
-        <f>(G69*3)+(H69*9)+(I69*18)+F69</f>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="25">
+        <f t="shared" ref="K69:K100" si="9">(H69*3)+(I69*9)+(J69*18)+G69</f>
         <v>26</v>
       </c>
-      <c r="K69" s="24">
-        <f>F69*5+E69</f>
+      <c r="L69" s="24">
+        <f t="shared" ref="L69:L103" si="10">G69*5+F69</f>
         <v>85</v>
       </c>
-      <c r="L69" s="17" cm="1">
-        <f t="array" ref="L69">_xlfn.IFS(A69="4lvl2",IF(J69&gt;=28,"No debe",28-J69), A69="4lvl1",IF(K69&gt;=28,"No debe",28-K69))</f>
+      <c r="M69" s="17" cm="1">
+        <f t="array" ref="M69">_xlfn.IFS(A69="4lvl2",IF(K69&gt;=28,"No debe",28-K69), A69="4lvl1",IF(L69&gt;=28,"No debe",28-L69))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C70,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D70,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B70" s="16" t="str">
-        <f>_xlfn.IFS(A70 = "4lvl2",IF(J70&gt;=28,"Cumplio", "No cumplio"),A70 = "4lvl1",IF(K70&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>No cumplio</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="16">
+        <v>894684328</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="28">
-        <f t="shared" ref="D70:D103" si="1">SUM(E70:I70)</f>
+      <c r="E70" s="28">
+        <f t="shared" ref="E70:E103" si="11">SUM(F70:J70)</f>
         <v>3</v>
       </c>
-      <c r="E70" s="7">
+      <c r="F70" s="7">
         <v>3</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
       <c r="G70" s="7">
         <v>0</v>
       </c>
@@ -9939,657 +10116,702 @@
       <c r="I70" s="7">
         <v>0</v>
       </c>
-      <c r="J70" s="25">
-        <f>(G70*3)+(H70*9)+(I70*18)+F70</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="24">
-        <f>F70*5+E70</f>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="24">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L70" s="17" cm="1">
-        <f t="array" ref="L70">_xlfn.IFS(A70="4lvl2",IF(J70&gt;=28,"No debe",28-J70), A70="4lvl1",IF(K70&gt;=28,"No debe",28-K70))</f>
+      <c r="M70" s="17" cm="1">
+        <f t="array" ref="M70">_xlfn.IFS(A70="4lvl2",IF(K70&gt;=28,"No debe",28-K70), A70="4lvl1",IF(L70&gt;=28,"No debe",28-L70))</f>
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C71,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D71,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B71" s="16" t="str">
-        <f>_xlfn.IFS(A71 = "4lvl2",IF(J71&gt;=28,"Cumplio", "No cumplio"),A71 = "4lvl1",IF(K71&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="16">
+        <v>1913187635</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="28">
-        <f t="shared" si="1"/>
+      <c r="E71" s="28">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F71" s="7">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <v>11</v>
       </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
         <v>0</v>
       </c>
-      <c r="J71" s="25">
-        <f>(G71*3)+(H71*9)+(I71*18)+F71</f>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="25">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K71" s="24">
-        <f>F71*5+E71</f>
+      <c r="L71" s="24">
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="L71" s="17" t="str" cm="1">
-        <f t="array" ref="L71">_xlfn.IFS(A71="4lvl2",IF(J71&gt;=28,"No debe",28-J71), A71="4lvl1",IF(K71&gt;=28,"No debe",28-K71))</f>
+      <c r="M71" s="17" t="str" cm="1">
+        <f t="array" ref="M71">_xlfn.IFS(A71="4lvl2",IF(K71&gt;=28,"No debe",28-K71), A71="4lvl1",IF(L71&gt;=28,"No debe",28-L71))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C72,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D72,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B72" s="16" t="str">
-        <f>_xlfn.IFS(A72 = "4lvl2",IF(J72&gt;=28,"Cumplio", "No cumplio"),A72 = "4lvl1",IF(K72&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="16">
+        <v>2057192192</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="28">
-        <f t="shared" si="1"/>
+      <c r="E72" s="28">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="E72" s="7">
+      <c r="F72" s="7">
         <v>11</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <v>4</v>
       </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
         <v>0</v>
       </c>
-      <c r="J72" s="25">
-        <f>(G72*3)+(H72*9)+(I72*18)+F72</f>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="25">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="K72" s="24">
-        <f>F72*5+E72</f>
+      <c r="L72" s="24">
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="L72" s="17" t="str" cm="1">
-        <f t="array" ref="L72">_xlfn.IFS(A72="4lvl2",IF(J72&gt;=28,"No debe",28-J72), A72="4lvl1",IF(K72&gt;=28,"No debe",28-K72))</f>
+      <c r="M72" s="17" t="str" cm="1">
+        <f t="array" ref="M72">_xlfn.IFS(A72="4lvl2",IF(K72&gt;=28,"No debe",28-K72), A72="4lvl1",IF(L72&gt;=28,"No debe",28-L72))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C73,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D73,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B73" s="16" t="str">
-        <f>_xlfn.IFS(A73 = "4lvl2",IF(J73&gt;=28,"Cumplio", "No cumplio"),A73 = "4lvl1",IF(K73&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="16">
+        <v>997405085</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="28">
-        <f t="shared" si="1"/>
+      <c r="E73" s="28">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E73" s="7">
-        <v>0</v>
-      </c>
       <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
         <v>28</v>
       </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
         <v>0</v>
       </c>
-      <c r="J73" s="25">
-        <f>(G73*3)+(H73*9)+(I73*18)+F73</f>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K73" s="24">
-        <f>F73*5+E73</f>
+      <c r="L73" s="24">
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="L73" s="17" t="str" cm="1">
-        <f t="array" ref="L73">_xlfn.IFS(A73="4lvl2",IF(J73&gt;=28,"No debe",28-J73), A73="4lvl1",IF(K73&gt;=28,"No debe",28-K73))</f>
+      <c r="M73" s="17" t="str" cm="1">
+        <f t="array" ref="M73">_xlfn.IFS(A73="4lvl2",IF(K73&gt;=28,"No debe",28-K73), A73="4lvl1",IF(L73&gt;=28,"No debe",28-L73))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C74,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D74,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B74" s="16" t="str">
-        <f>_xlfn.IFS(A74 = "4lvl2",IF(J74&gt;=28,"Cumplio", "No cumplio"),A74 = "4lvl1",IF(K74&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="16">
+        <v>368989323</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="28">
-        <f t="shared" si="1"/>
+      <c r="E74" s="28">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
       <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
         <v>19</v>
       </c>
-      <c r="G74" s="7">
+      <c r="H74" s="7">
         <v>3</v>
       </c>
-      <c r="H74" s="7">
+      <c r="I74" s="7">
         <v>1</v>
       </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="J74" s="25">
-        <f>(G74*3)+(H74*9)+(I74*18)+F74</f>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="25">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="K74" s="24">
-        <f>F74*5+E74</f>
+      <c r="L74" s="24">
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="L74" s="17" t="str" cm="1">
-        <f t="array" ref="L74">_xlfn.IFS(A74="4lvl2",IF(J74&gt;=28,"No debe",28-J74), A74="4lvl1",IF(K74&gt;=28,"No debe",28-K74))</f>
+      <c r="M74" s="17" t="str" cm="1">
+        <f t="array" ref="M74">_xlfn.IFS(A74="4lvl2",IF(K74&gt;=28,"No debe",28-K74), A74="4lvl1",IF(L74&gt;=28,"No debe",28-L74))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C75,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D75,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B75" s="16" t="str">
-        <f>_xlfn.IFS(A75 = "4lvl2",IF(J75&gt;=28,"Cumplio", "No cumplio"),A75 = "4lvl1",IF(K75&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>No cumplio</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="16">
+        <v>871375531</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="28">
-        <f t="shared" si="1"/>
+      <c r="E75" s="28">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="E75" s="7">
-        <v>0</v>
-      </c>
       <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
         <v>17</v>
       </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
         <v>0</v>
       </c>
-      <c r="J75" s="25">
-        <f>(G75*3)+(H75*9)+(I75*18)+F75</f>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="25">
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="K75" s="24">
-        <f>F75*5+E75</f>
+      <c r="L75" s="24">
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="L75" s="17" cm="1">
-        <f t="array" ref="L75">_xlfn.IFS(A75="4lvl2",IF(J75&gt;=28,"No debe",28-J75), A75="4lvl1",IF(K75&gt;=28,"No debe",28-K75))</f>
+      <c r="M75" s="17" cm="1">
+        <f t="array" ref="M75">_xlfn.IFS(A75="4lvl2",IF(K75&gt;=28,"No debe",28-K75), A75="4lvl1",IF(L75&gt;=28,"No debe",28-L75))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C76,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D76,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B76" s="16" t="str">
-        <f>_xlfn.IFS(A76 = "4lvl2",IF(J76&gt;=28,"Cumplio", "No cumplio"),A76 = "4lvl1",IF(K76&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="16">
+        <v>575628107</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="28">
-        <f t="shared" si="1"/>
+      <c r="E76" s="28">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
       <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
         <v>29</v>
       </c>
-      <c r="G76" s="7">
+      <c r="H76" s="7">
         <v>1</v>
       </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
       <c r="I76" s="7">
         <v>0</v>
       </c>
-      <c r="J76" s="25">
-        <f>(G76*3)+(H76*9)+(I76*18)+F76</f>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="25">
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="K76" s="24">
-        <f>F76*5+E76</f>
+      <c r="L76" s="24">
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
-      <c r="L76" s="17" t="str" cm="1">
-        <f t="array" ref="L76">_xlfn.IFS(A76="4lvl2",IF(J76&gt;=28,"No debe",28-J76), A76="4lvl1",IF(K76&gt;=28,"No debe",28-K76))</f>
+      <c r="M76" s="17" t="str" cm="1">
+        <f t="array" ref="M76">_xlfn.IFS(A76="4lvl2",IF(K76&gt;=28,"No debe",28-K76), A76="4lvl1",IF(L76&gt;=28,"No debe",28-L76))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C77,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D77,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B77" s="16" t="str">
-        <f>_xlfn.IFS(A77 = "4lvl2",IF(J77&gt;=28,"Cumplio", "No cumplio"),A77 = "4lvl1",IF(K77&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="16">
+        <v>526268020</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="28">
-        <f t="shared" si="1"/>
+      <c r="E77" s="28">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
       <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
         <v>23</v>
       </c>
-      <c r="G77" s="7">
+      <c r="H77" s="7">
         <v>3</v>
       </c>
-      <c r="H77" s="7">
+      <c r="I77" s="7">
         <v>1</v>
       </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="25">
-        <f>(G77*3)+(H77*9)+(I77*18)+F77</f>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="25">
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="K77" s="24">
-        <f>F77*5+E77</f>
+      <c r="L77" s="24">
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="L77" s="17" t="str" cm="1">
-        <f t="array" ref="L77">_xlfn.IFS(A77="4lvl2",IF(J77&gt;=28,"No debe",28-J77), A77="4lvl1",IF(K77&gt;=28,"No debe",28-K77))</f>
+      <c r="M77" s="17" t="str" cm="1">
+        <f t="array" ref="M77">_xlfn.IFS(A77="4lvl2",IF(K77&gt;=28,"No debe",28-K77), A77="4lvl1",IF(L77&gt;=28,"No debe",28-L77))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C78,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D78,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B78" s="16" t="str">
-        <f>_xlfn.IFS(A78 = "4lvl2",IF(J78&gt;=28,"Cumplio", "No cumplio"),A78 = "4lvl1",IF(K78&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="16">
+        <v>1277887598</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="28">
-        <f t="shared" si="1"/>
+      <c r="E78" s="28">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
       <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
         <v>29</v>
       </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
         <v>0</v>
       </c>
-      <c r="J78" s="25">
-        <f>(G78*3)+(H78*9)+(I78*18)+F78</f>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="25">
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="K78" s="24">
-        <f>F78*5+E78</f>
+      <c r="L78" s="24">
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
-      <c r="L78" s="17" t="str" cm="1">
-        <f t="array" ref="L78">_xlfn.IFS(A78="4lvl2",IF(J78&gt;=28,"No debe",28-J78), A78="4lvl1",IF(K78&gt;=28,"No debe",28-K78))</f>
+      <c r="M78" s="17" t="str" cm="1">
+        <f t="array" ref="M78">_xlfn.IFS(A78="4lvl2",IF(K78&gt;=28,"No debe",28-K78), A78="4lvl1",IF(L78&gt;=28,"No debe",28-L78))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C79,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D79,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B79" s="16" t="str">
-        <f>_xlfn.IFS(A79 = "4lvl2",IF(J79&gt;=28,"Cumplio", "No cumplio"),A79 = "4lvl1",IF(K79&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="16">
+        <v>817770675</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="28">
-        <f t="shared" si="1"/>
+      <c r="E79" s="28">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="E79" s="7">
-        <v>0</v>
-      </c>
       <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
         <v>10</v>
       </c>
-      <c r="G79" s="7">
+      <c r="H79" s="7">
         <v>11</v>
       </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
       <c r="I79" s="7">
         <v>0</v>
       </c>
-      <c r="J79" s="25">
-        <f>(G79*3)+(H79*9)+(I79*18)+F79</f>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="25">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="K79" s="24">
-        <f>F79*5+E79</f>
+      <c r="L79" s="24">
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L79" s="17" t="str" cm="1">
-        <f t="array" ref="L79">_xlfn.IFS(A79="4lvl2",IF(J79&gt;=28,"No debe",28-J79), A79="4lvl1",IF(K79&gt;=28,"No debe",28-K79))</f>
+      <c r="M79" s="17" t="str" cm="1">
+        <f t="array" ref="M79">_xlfn.IFS(A79="4lvl2",IF(K79&gt;=28,"No debe",28-K79), A79="4lvl1",IF(L79&gt;=28,"No debe",28-L79))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C80,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D80,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B80" s="16" t="str">
-        <f>_xlfn.IFS(A80 = "4lvl2",IF(J80&gt;=28,"Cumplio", "No cumplio"),A80 = "4lvl1",IF(K80&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="16">
+        <v>1840157497</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="28">
-        <f t="shared" si="1"/>
+      <c r="E80" s="28">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
       <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
         <v>23</v>
       </c>
-      <c r="G80" s="7">
+      <c r="H80" s="7">
         <v>2</v>
       </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
       <c r="I80" s="7">
         <v>0</v>
       </c>
-      <c r="J80" s="25">
-        <f>(G80*3)+(H80*9)+(I80*18)+F80</f>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="25">
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="K80" s="24">
-        <f>F80*5+E80</f>
+      <c r="L80" s="24">
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="L80" s="17" t="str" cm="1">
-        <f t="array" ref="L80">_xlfn.IFS(A80="4lvl2",IF(J80&gt;=28,"No debe",28-J80), A80="4lvl1",IF(K80&gt;=28,"No debe",28-K80))</f>
+      <c r="M80" s="17" t="str" cm="1">
+        <f t="array" ref="M80">_xlfn.IFS(A80="4lvl2",IF(K80&gt;=28,"No debe",28-K80), A80="4lvl1",IF(L80&gt;=28,"No debe",28-L80))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C81,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D81,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B81" s="16" t="str">
-        <f>_xlfn.IFS(A81 = "4lvl2",IF(J81&gt;=28,"Cumplio", "No cumplio"),A81 = "4lvl1",IF(K81&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="16">
+        <v>824087398</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="28">
-        <f t="shared" si="1"/>
+      <c r="E81" s="28">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="E81" s="7">
-        <v>0</v>
-      </c>
       <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
         <v>9</v>
       </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
         <v>0</v>
       </c>
-      <c r="J81" s="25">
-        <f>(G81*3)+(H81*9)+(I81*18)+F81</f>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="25">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="K81" s="24">
-        <f>F81*5+E81</f>
+      <c r="L81" s="24">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="L81" s="17" t="str" cm="1">
-        <f t="array" ref="L81">_xlfn.IFS(A81="4lvl2",IF(J81&gt;=28,"No debe",28-J81), A81="4lvl1",IF(K81&gt;=28,"No debe",28-K81))</f>
+      <c r="M81" s="17" t="str" cm="1">
+        <f t="array" ref="M81">_xlfn.IFS(A81="4lvl2",IF(K81&gt;=28,"No debe",28-K81), A81="4lvl1",IF(L81&gt;=28,"No debe",28-L81))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C82,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D82,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B82" s="16" t="str">
-        <f>_xlfn.IFS(A82 = "4lvl2",IF(J82&gt;=28,"Cumplio", "No cumplio"),A82 = "4lvl1",IF(K82&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="16">
+        <v>430631735</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="28">
-        <f t="shared" si="1"/>
+      <c r="E82" s="28">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
       <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
         <v>8</v>
       </c>
-      <c r="G82" s="7">
+      <c r="H82" s="7">
         <v>2</v>
       </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
       <c r="I82" s="7">
         <v>0</v>
       </c>
-      <c r="J82" s="25">
-        <f>(G82*3)+(H82*9)+(I82*18)+F82</f>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="25">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="K82" s="24">
-        <f>F82*5+E82</f>
+      <c r="L82" s="24">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="L82" s="17" t="str" cm="1">
-        <f t="array" ref="L82">_xlfn.IFS(A82="4lvl2",IF(J82&gt;=28,"No debe",28-J82), A82="4lvl1",IF(K82&gt;=28,"No debe",28-K82))</f>
+      <c r="M82" s="17" t="str" cm="1">
+        <f t="array" ref="M82">_xlfn.IFS(A82="4lvl2",IF(K82&gt;=28,"No debe",28-K82), A82="4lvl1",IF(L82&gt;=28,"No debe",28-L82))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C83,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D83,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B83" s="16" t="str">
-        <f>_xlfn.IFS(A83 = "4lvl2",IF(J83&gt;=28,"Cumplio", "No cumplio"),A83 = "4lvl1",IF(K83&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="16">
+        <v>829353787</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D83" s="28">
-        <f t="shared" si="1"/>
+      <c r="E83" s="28">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
       <c r="F83" s="7">
         <v>0</v>
       </c>
       <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
         <v>2</v>
       </c>
-      <c r="H83" s="7">
+      <c r="I83" s="7">
         <v>4</v>
       </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="25">
-        <f>(G83*3)+(H83*9)+(I83*18)+F83</f>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="25">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="K83" s="24">
-        <f>F83*5+E83</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="17" t="str" cm="1">
-        <f t="array" ref="L83">_xlfn.IFS(A83="4lvl2",IF(J83&gt;=28,"No debe",28-J83), A83="4lvl1",IF(K83&gt;=28,"No debe",28-K83))</f>
+      <c r="L83" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="17" t="str" cm="1">
+        <f t="array" ref="M83">_xlfn.IFS(A83="4lvl2",IF(K83&gt;=28,"No debe",28-K83), A83="4lvl1",IF(L83&gt;=28,"No debe",28-L83))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C84,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D84,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B84" s="16" t="str">
-        <f>_xlfn.IFS(A84 = "4lvl2",IF(J84&gt;=28,"Cumplio", "No cumplio"),A84 = "4lvl1",IF(K84&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="16">
+        <v>559847999</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="28">
-        <f t="shared" si="1"/>
+      <c r="E84" s="28">
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="E84" s="7">
-        <v>0</v>
-      </c>
       <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
         <v>30</v>
       </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
       <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
         <v>2</v>
       </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="25">
-        <f>(G84*3)+(H84*9)+(I84*18)+F84</f>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="25">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="K84" s="24">
-        <f>F84*5+E84</f>
+      <c r="L84" s="24">
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="L84" s="17" t="str" cm="1">
-        <f t="array" ref="L84">_xlfn.IFS(A84="4lvl2",IF(J84&gt;=28,"No debe",28-J84), A84="4lvl1",IF(K84&gt;=28,"No debe",28-K84))</f>
+      <c r="M84" s="17" t="str" cm="1">
+        <f t="array" ref="M84">_xlfn.IFS(A84="4lvl2",IF(K84&gt;=28,"No debe",28-K84), A84="4lvl1",IF(L84&gt;=28,"No debe",28-L84))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C85,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D85,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B85" s="16" t="str">
-        <f>_xlfn.IFS(A85 = "4lvl2",IF(J85&gt;=28,"Cumplio", "No cumplio"),A85 = "4lvl1",IF(K85&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>No cumplio</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="16">
+        <v>1319105812</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="28">
-        <f t="shared" si="1"/>
+      <c r="E85" s="28">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E85" s="7">
+      <c r="F85" s="7">
         <v>2</v>
       </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
       <c r="G85" s="7">
         <v>0</v>
       </c>
@@ -10599,818 +10821,875 @@
       <c r="I85" s="7">
         <v>0</v>
       </c>
-      <c r="J85" s="25">
-        <f>(G85*3)+(H85*9)+(I85*18)+F85</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="24">
-        <f>F85*5+E85</f>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="24">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="L85" s="17" cm="1">
-        <f t="array" ref="L85">_xlfn.IFS(A85="4lvl2",IF(J85&gt;=28,"No debe",28-J85), A85="4lvl1",IF(K85&gt;=28,"No debe",28-K85))</f>
+      <c r="M85" s="17" cm="1">
+        <f t="array" ref="M85">_xlfn.IFS(A85="4lvl2",IF(K85&gt;=28,"No debe",28-K85), A85="4lvl1",IF(L85&gt;=28,"No debe",28-L85))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C86,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D86,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B86" s="16" t="str">
-        <f>_xlfn.IFS(A86 = "4lvl2",IF(J86&gt;=28,"Cumplio", "No cumplio"),A86 = "4lvl1",IF(K86&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="16">
+        <v>884346374</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="28">
-        <f t="shared" si="1"/>
+      <c r="E86" s="28">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
       <c r="F86" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G86" s="7">
         <v>7</v>
       </c>
       <c r="H86" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I86" s="7">
         <v>0</v>
       </c>
-      <c r="J86" s="25">
-        <f>(G86*3)+(H86*9)+(I86*18)+F86</f>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K86" s="24">
-        <f>F86*5+E86</f>
+      <c r="L86" s="24">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="L86" s="17" t="str" cm="1">
-        <f t="array" ref="L86">_xlfn.IFS(A86="4lvl2",IF(J86&gt;=28,"No debe",28-J86), A86="4lvl1",IF(K86&gt;=28,"No debe",28-K86))</f>
+      <c r="M86" s="17" t="str" cm="1">
+        <f t="array" ref="M86">_xlfn.IFS(A86="4lvl2",IF(K86&gt;=28,"No debe",28-K86), A86="4lvl1",IF(L86&gt;=28,"No debe",28-L86))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C87,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D87,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B87" s="16" t="str">
-        <f>_xlfn.IFS(A87 = "4lvl2",IF(J87&gt;=28,"Cumplio", "No cumplio"),A87 = "4lvl1",IF(K87&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="16">
+        <v>1923743214</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="28">
-        <f t="shared" si="1"/>
+      <c r="E87" s="28">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="E87" s="7">
+      <c r="F87" s="7">
         <v>12</v>
       </c>
-      <c r="F87" s="7">
+      <c r="G87" s="7">
         <v>4</v>
       </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
         <v>0</v>
       </c>
-      <c r="J87" s="25">
-        <f>(G87*3)+(H87*9)+(I87*18)+F87</f>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="25">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="K87" s="24">
-        <f>F87*5+E87</f>
+      <c r="L87" s="24">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="L87" s="17" t="str" cm="1">
-        <f t="array" ref="L87">_xlfn.IFS(A87="4lvl2",IF(J87&gt;=28,"No debe",28-J87), A87="4lvl1",IF(K87&gt;=28,"No debe",28-K87))</f>
+      <c r="M87" s="17" t="str" cm="1">
+        <f t="array" ref="M87">_xlfn.IFS(A87="4lvl2",IF(K87&gt;=28,"No debe",28-K87), A87="4lvl1",IF(L87&gt;=28,"No debe",28-L87))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C88,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D88,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B88" s="16" t="str">
-        <f>_xlfn.IFS(A88 = "4lvl2",IF(J88&gt;=28,"Cumplio", "No cumplio"),A88 = "4lvl1",IF(K88&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>No cumplio</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="16">
+        <v>1050145825</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="28">
-        <f t="shared" si="1"/>
+      <c r="E88" s="28">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E88" s="7">
-        <v>0</v>
-      </c>
       <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
         <v>1</v>
       </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
         <v>0</v>
       </c>
-      <c r="J88" s="25">
-        <f>(G88*3)+(H88*9)+(I88*18)+F88</f>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="25">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K88" s="24">
-        <f>F88*5+E88</f>
+      <c r="L88" s="24">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="L88" s="17" cm="1">
-        <f t="array" ref="L88">_xlfn.IFS(A88="4lvl2",IF(J88&gt;=28,"No debe",28-J88), A88="4lvl1",IF(K88&gt;=28,"No debe",28-K88))</f>
+      <c r="M88" s="17" cm="1">
+        <f t="array" ref="M88">_xlfn.IFS(A88="4lvl2",IF(K88&gt;=28,"No debe",28-K88), A88="4lvl1",IF(L88&gt;=28,"No debe",28-L88))</f>
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C89,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D89,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B89" s="16" t="str">
-        <f>_xlfn.IFS(A89 = "4lvl2",IF(J89&gt;=28,"Cumplio", "No cumplio"),A89 = "4lvl1",IF(K89&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="16">
+        <v>677616563</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D89" s="28">
-        <f t="shared" si="1"/>
+      <c r="E89" s="28">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="E89" s="7">
-        <v>0</v>
-      </c>
       <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
         <v>26</v>
       </c>
-      <c r="G89" s="7">
+      <c r="H89" s="7">
         <v>2</v>
       </c>
-      <c r="H89" s="7">
+      <c r="I89" s="7">
         <v>1</v>
       </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="25">
-        <f>(G89*3)+(H89*9)+(I89*18)+F89</f>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="25">
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="K89" s="24">
-        <f>F89*5+E89</f>
+      <c r="L89" s="24">
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="L89" s="17" t="str" cm="1">
-        <f t="array" ref="L89">_xlfn.IFS(A89="4lvl2",IF(J89&gt;=28,"No debe",28-J89), A89="4lvl1",IF(K89&gt;=28,"No debe",28-K89))</f>
+      <c r="M89" s="17" t="str" cm="1">
+        <f t="array" ref="M89">_xlfn.IFS(A89="4lvl2",IF(K89&gt;=28,"No debe",28-K89), A89="4lvl1",IF(L89&gt;=28,"No debe",28-L89))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C90,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D90,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B90" s="16" t="str">
-        <f>_xlfn.IFS(A90 = "4lvl2",IF(J90&gt;=28,"Cumplio", "No cumplio"),A90 = "4lvl1",IF(K90&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="16">
+        <v>566390589</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="28">
-        <f t="shared" si="1"/>
+      <c r="E90" s="28">
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="E90" s="7">
-        <v>0</v>
-      </c>
       <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
         <v>19</v>
       </c>
-      <c r="G90" s="7">
+      <c r="H90" s="7">
         <v>3</v>
       </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
       <c r="I90" s="7">
         <v>0</v>
       </c>
-      <c r="J90" s="25">
-        <f>(G90*3)+(H90*9)+(I90*18)+F90</f>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K90" s="24">
-        <f>F90*5+E90</f>
+      <c r="L90" s="24">
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="L90" s="17" t="str" cm="1">
-        <f t="array" ref="L90">_xlfn.IFS(A90="4lvl2",IF(J90&gt;=28,"No debe",28-J90), A90="4lvl1",IF(K90&gt;=28,"No debe",28-K90))</f>
+      <c r="M90" s="17" t="str" cm="1">
+        <f t="array" ref="M90">_xlfn.IFS(A90="4lvl2",IF(K90&gt;=28,"No debe",28-K90), A90="4lvl1",IF(L90&gt;=28,"No debe",28-L90))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C91,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D91,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B91" s="16" t="str">
-        <f>_xlfn.IFS(A91 = "4lvl2",IF(J91&gt;=28,"Cumplio", "No cumplio"),A91 = "4lvl1",IF(K91&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="16">
+        <v>1769834648</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D91" s="28">
-        <f t="shared" si="1"/>
+      <c r="E91" s="28">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="E91" s="7">
-        <v>0</v>
-      </c>
       <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
         <v>20</v>
       </c>
-      <c r="G91" s="7">
-        <v>0</v>
-      </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="7">
         <v>0</v>
       </c>
-      <c r="J91" s="25">
-        <f>(G91*3)+(H91*9)+(I91*18)+F91</f>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="25">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K91" s="24">
-        <f>F91*5+E91</f>
+      <c r="L91" s="24">
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="L91" s="17" t="str" cm="1">
-        <f t="array" ref="L91">_xlfn.IFS(A91="4lvl2",IF(J91&gt;=28,"No debe",28-J91), A91="4lvl1",IF(K91&gt;=28,"No debe",28-K91))</f>
+      <c r="M91" s="17" t="str" cm="1">
+        <f t="array" ref="M91">_xlfn.IFS(A91="4lvl2",IF(K91&gt;=28,"No debe",28-K91), A91="4lvl1",IF(L91&gt;=28,"No debe",28-L91))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C92,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D92,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B92" s="16" t="str">
-        <f>_xlfn.IFS(A92 = "4lvl2",IF(J92&gt;=28,"Cumplio", "No cumplio"),A92 = "4lvl1",IF(K92&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="16">
+        <v>927459756</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="28">
-        <f t="shared" si="1"/>
+      <c r="E92" s="28">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="E92" s="7">
-        <v>0</v>
-      </c>
       <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
         <v>19</v>
       </c>
-      <c r="G92" s="7">
+      <c r="H92" s="7">
         <v>4</v>
       </c>
-      <c r="H92" s="7">
-        <v>0</v>
-      </c>
       <c r="I92" s="7">
         <v>0</v>
       </c>
-      <c r="J92" s="25">
-        <f>(G92*3)+(H92*9)+(I92*18)+F92</f>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="25">
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="K92" s="24">
-        <f>F92*5+E92</f>
+      <c r="L92" s="24">
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="L92" s="17" t="str" cm="1">
-        <f t="array" ref="L92">_xlfn.IFS(A92="4lvl2",IF(J92&gt;=28,"No debe",28-J92), A92="4lvl1",IF(K92&gt;=28,"No debe",28-K92))</f>
+      <c r="M92" s="17" t="str" cm="1">
+        <f t="array" ref="M92">_xlfn.IFS(A92="4lvl2",IF(K92&gt;=28,"No debe",28-K92), A92="4lvl1",IF(L92&gt;=28,"No debe",28-L92))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C93,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D93,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B93" s="16" t="str">
-        <f>_xlfn.IFS(A93 = "4lvl2",IF(J93&gt;=28,"Cumplio", "No cumplio"),A93 = "4lvl1",IF(K93&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="16">
+        <v>1467795273</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="28">
-        <f t="shared" si="1"/>
+      <c r="E93" s="28">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E93" s="7">
-        <v>0</v>
-      </c>
       <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
         <v>28</v>
       </c>
-      <c r="G93" s="7">
-        <v>0</v>
-      </c>
       <c r="H93" s="7">
         <v>0</v>
       </c>
       <c r="I93" s="7">
         <v>0</v>
       </c>
-      <c r="J93" s="25">
-        <f>(G93*3)+(H93*9)+(I93*18)+F93</f>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K93" s="24">
-        <f>F93*5+E93</f>
+      <c r="L93" s="24">
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="L93" s="17" t="str" cm="1">
-        <f t="array" ref="L93">_xlfn.IFS(A93="4lvl2",IF(J93&gt;=28,"No debe",28-J93), A93="4lvl1",IF(K93&gt;=28,"No debe",28-K93))</f>
+      <c r="M93" s="17" t="str" cm="1">
+        <f t="array" ref="M93">_xlfn.IFS(A93="4lvl2",IF(K93&gt;=28,"No debe",28-K93), A93="4lvl1",IF(L93&gt;=28,"No debe",28-L93))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C94,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D94,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B94" s="16" t="str">
-        <f>_xlfn.IFS(A94 = "4lvl2",IF(J94&gt;=28,"Cumplio", "No cumplio"),A94 = "4lvl1",IF(K94&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>No cumplio</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="16">
+        <v>942310295</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="28">
-        <f t="shared" si="1"/>
+      <c r="E94" s="28">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E94" s="7">
-        <v>0</v>
-      </c>
       <c r="F94" s="7">
         <v>0</v>
       </c>
       <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
         <v>6</v>
       </c>
-      <c r="H94" s="7">
-        <v>0</v>
-      </c>
       <c r="I94" s="7">
         <v>0</v>
       </c>
-      <c r="J94" s="25">
-        <f>(G94*3)+(H94*9)+(I94*18)+F94</f>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="25">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="K94" s="24">
-        <f>F94*5+E94</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="17" cm="1">
-        <f t="array" ref="L94">_xlfn.IFS(A94="4lvl2",IF(J94&gt;=28,"No debe",28-J94), A94="4lvl1",IF(K94&gt;=28,"No debe",28-K94))</f>
+      <c r="L94" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="17" cm="1">
+        <f t="array" ref="M94">_xlfn.IFS(A94="4lvl2",IF(K94&gt;=28,"No debe",28-K94), A94="4lvl1",IF(L94&gt;=28,"No debe",28-L94))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C95,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D95,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B95" s="16" t="str">
-        <f>_xlfn.IFS(A95 = "4lvl2",IF(J95&gt;=28,"Cumplio", "No cumplio"),A95 = "4lvl1",IF(K95&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="16">
+        <v>316622757</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="28">
-        <f t="shared" si="1"/>
+      <c r="E95" s="28">
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="E95" s="7">
-        <v>0</v>
-      </c>
       <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
         <v>15</v>
       </c>
-      <c r="G95" s="7">
+      <c r="H95" s="7">
         <v>7</v>
       </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
       <c r="I95" s="7">
         <v>0</v>
       </c>
-      <c r="J95" s="25">
-        <f>(G95*3)+(H95*9)+(I95*18)+F95</f>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="25">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="K95" s="24">
-        <f>F95*5+E95</f>
+      <c r="L95" s="24">
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="L95" s="17" t="str" cm="1">
-        <f t="array" ref="L95">_xlfn.IFS(A95="4lvl2",IF(J95&gt;=28,"No debe",28-J95), A95="4lvl1",IF(K95&gt;=28,"No debe",28-K95))</f>
+      <c r="M95" s="17" t="str" cm="1">
+        <f t="array" ref="M95">_xlfn.IFS(A95="4lvl2",IF(K95&gt;=28,"No debe",28-K95), A95="4lvl1",IF(L95&gt;=28,"No debe",28-L95))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C96,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D96,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B96" s="16" t="str">
-        <f>_xlfn.IFS(A96 = "4lvl2",IF(J96&gt;=28,"Cumplio", "No cumplio"),A96 = "4lvl1",IF(K96&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="16">
+        <v>341273772</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="28">
-        <f t="shared" si="1"/>
+      <c r="E96" s="28">
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="E96" s="7">
-        <v>0</v>
-      </c>
       <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
         <v>18</v>
       </c>
-      <c r="G96" s="7">
+      <c r="H96" s="7">
         <v>4</v>
       </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
       <c r="I96" s="7">
         <v>0</v>
       </c>
-      <c r="J96" s="25">
-        <f>(G96*3)+(H96*9)+(I96*18)+F96</f>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="25">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K96" s="24">
-        <f>F96*5+E96</f>
+      <c r="L96" s="24">
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="L96" s="17" t="str" cm="1">
-        <f t="array" ref="L96">_xlfn.IFS(A96="4lvl2",IF(J96&gt;=28,"No debe",28-J96), A96="4lvl1",IF(K96&gt;=28,"No debe",28-K96))</f>
+      <c r="M96" s="17" t="str" cm="1">
+        <f t="array" ref="M96">_xlfn.IFS(A96="4lvl2",IF(K96&gt;=28,"No debe",28-K96), A96="4lvl1",IF(L96&gt;=28,"No debe",28-L96))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C97,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D97,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B97" s="16" t="str">
-        <f>_xlfn.IFS(A97 = "4lvl2",IF(J97&gt;=28,"Cumplio", "No cumplio"),A97 = "4lvl1",IF(K97&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="16">
+        <v>526940596</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="28">
-        <f t="shared" si="1"/>
+      <c r="E97" s="28">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="E97" s="7">
-        <v>0</v>
-      </c>
       <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
         <v>13</v>
       </c>
-      <c r="G97" s="7">
+      <c r="H97" s="7">
         <v>2</v>
       </c>
-      <c r="H97" s="7">
+      <c r="I97" s="7">
         <v>1</v>
       </c>
-      <c r="I97" s="7">
-        <v>0</v>
-      </c>
-      <c r="J97" s="25">
-        <f>(G97*3)+(H97*9)+(I97*18)+F97</f>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K97" s="24">
-        <f>F97*5+E97</f>
+      <c r="L97" s="24">
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="L97" s="17" t="str" cm="1">
-        <f t="array" ref="L97">_xlfn.IFS(A97="4lvl2",IF(J97&gt;=28,"No debe",28-J97), A97="4lvl1",IF(K97&gt;=28,"No debe",28-K97))</f>
+      <c r="M97" s="17" t="str" cm="1">
+        <f t="array" ref="M97">_xlfn.IFS(A97="4lvl2",IF(K97&gt;=28,"No debe",28-K97), A97="4lvl1",IF(L97&gt;=28,"No debe",28-L97))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C98,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D98,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B98" s="16" t="str">
-        <f>_xlfn.IFS(A98 = "4lvl2",IF(J98&gt;=28,"Cumplio", "No cumplio"),A98 = "4lvl1",IF(K98&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="16">
+        <v>919665444</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="28">
-        <f t="shared" si="1"/>
+      <c r="E98" s="28">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E98" s="7">
-        <v>0</v>
-      </c>
       <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
         <v>28</v>
       </c>
-      <c r="G98" s="7">
-        <v>0</v>
-      </c>
       <c r="H98" s="7">
         <v>0</v>
       </c>
       <c r="I98" s="7">
         <v>0</v>
       </c>
-      <c r="J98" s="25">
-        <f>(G98*3)+(H98*9)+(I98*18)+F98</f>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K98" s="24">
-        <f>F98*5+E98</f>
+      <c r="L98" s="24">
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="L98" s="17" t="str" cm="1">
-        <f t="array" ref="L98">_xlfn.IFS(A98="4lvl2",IF(J98&gt;=28,"No debe",28-J98), A98="4lvl1",IF(K98&gt;=28,"No debe",28-K98))</f>
+      <c r="M98" s="17" t="str" cm="1">
+        <f t="array" ref="M98">_xlfn.IFS(A98="4lvl2",IF(K98&gt;=28,"No debe",28-K98), A98="4lvl1",IF(L98&gt;=28,"No debe",28-L98))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C99,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D99,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl1</v>
       </c>
       <c r="B99" s="16" t="str">
-        <f>_xlfn.IFS(A99 = "4lvl2",IF(J99&gt;=28,"Cumplio", "No cumplio"),A99 = "4lvl1",IF(K99&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="16">
+        <v>1806182451</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="28">
-        <f t="shared" si="1"/>
+      <c r="E99" s="28">
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="E99" s="7">
+      <c r="F99" s="7">
         <v>53</v>
       </c>
-      <c r="F99" s="7">
+      <c r="G99" s="7">
         <v>2</v>
       </c>
-      <c r="G99" s="7">
-        <v>0</v>
-      </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="7">
         <v>0</v>
       </c>
-      <c r="J99" s="25">
-        <f>(G99*3)+(H99*9)+(I99*18)+F99</f>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="25">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K99" s="24">
-        <f>F99*5+E99</f>
+      <c r="L99" s="24">
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
-      <c r="L99" s="17" t="str" cm="1">
-        <f t="array" ref="L99">_xlfn.IFS(A99="4lvl2",IF(J99&gt;=28,"No debe",28-J99), A99="4lvl1",IF(K99&gt;=28,"No debe",28-K99))</f>
+      <c r="M99" s="17" t="str" cm="1">
+        <f t="array" ref="M99">_xlfn.IFS(A99="4lvl2",IF(K99&gt;=28,"No debe",28-K99), A99="4lvl1",IF(L99&gt;=28,"No debe",28-L99))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C100,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D100,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B100" s="16" t="str">
-        <f>_xlfn.IFS(A100 = "4lvl2",IF(J100&gt;=28,"Cumplio", "No cumplio"),A100 = "4lvl1",IF(K100&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="8"/>
         <v>Cumplio</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="16">
+        <v>529432908</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D100" s="28">
-        <f t="shared" si="1"/>
+      <c r="E100" s="28">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="E100" s="7">
-        <v>0</v>
-      </c>
       <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
         <v>13</v>
       </c>
-      <c r="G100" s="7">
+      <c r="H100" s="7">
         <v>2</v>
       </c>
-      <c r="H100" s="7">
+      <c r="I100" s="7">
         <v>1</v>
       </c>
-      <c r="I100" s="7">
-        <v>0</v>
-      </c>
-      <c r="J100" s="25">
-        <f>(G100*3)+(H100*9)+(I100*18)+F100</f>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="25">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="K100" s="24">
-        <f>F100*5+E100</f>
+      <c r="L100" s="24">
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="L100" s="17" t="str" cm="1">
-        <f t="array" ref="L100">_xlfn.IFS(A100="4lvl2",IF(J100&gt;=28,"No debe",28-J100), A100="4lvl1",IF(K100&gt;=28,"No debe",28-K100))</f>
+      <c r="M100" s="17" t="str" cm="1">
+        <f t="array" ref="M100">_xlfn.IFS(A100="4lvl2",IF(K100&gt;=28,"No debe",28-K100), A100="4lvl1",IF(L100&gt;=28,"No debe",28-L100))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C101,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D101,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B101" s="16" t="str">
-        <f>_xlfn.IFS(A101 = "4lvl2",IF(J101&gt;=28,"Cumplio", "No cumplio"),A101 = "4lvl1",IF(K101&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" ref="B101:B103" si="12">_xlfn.IFS(A101 = "4lvl2",IF(K101&gt;=28,"Cumplio", "No cumplio"),A101 = "4lvl1",IF(L101&gt;= 28,"Cumplio","No cumplio"))</f>
         <v>Cumplio</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="16">
+        <v>469677437</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D101" s="28">
-        <f t="shared" si="1"/>
+      <c r="E101" s="28">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E101" s="7">
-        <v>0</v>
-      </c>
       <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
         <v>31</v>
       </c>
-      <c r="G101" s="7">
+      <c r="H101" s="7">
         <v>2</v>
       </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
       <c r="I101" s="7">
         <v>0</v>
       </c>
-      <c r="J101" s="25">
-        <f>(G101*3)+(H101*9)+(I101*18)+F101</f>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="25">
+        <f t="shared" ref="K101:K103" si="13">(H101*3)+(I101*9)+(J101*18)+G101</f>
         <v>37</v>
       </c>
-      <c r="K101" s="24">
-        <f>F101*5+E101</f>
+      <c r="L101" s="24">
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
-      <c r="L101" s="17" t="str" cm="1">
-        <f t="array" ref="L101">_xlfn.IFS(A101="4lvl2",IF(J101&gt;=28,"No debe",28-J101), A101="4lvl1",IF(K101&gt;=28,"No debe",28-K101))</f>
+      <c r="M101" s="17" t="str" cm="1">
+        <f t="array" ref="M101">_xlfn.IFS(A101="4lvl2",IF(K101&gt;=28,"No debe",28-K101), A101="4lvl1",IF(L101&gt;=28,"No debe",28-L101))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C102,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D102,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B102" s="16" t="str">
-        <f>_xlfn.IFS(A102 = "4lvl2",IF(J102&gt;=28,"Cumplio", "No cumplio"),A102 = "4lvl1",IF(K102&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="12"/>
         <v>Cumplio</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="16">
+        <v>1727138266</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="28">
-        <f t="shared" si="1"/>
+      <c r="E102" s="28">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="E102" s="7">
-        <v>0</v>
-      </c>
       <c r="F102" s="7">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
         <v>27</v>
       </c>
-      <c r="G102" s="7">
+      <c r="H102" s="7">
         <v>3</v>
       </c>
-      <c r="H102" s="7">
-        <v>0</v>
-      </c>
       <c r="I102" s="7">
         <v>0</v>
       </c>
-      <c r="J102" s="25">
-        <f>(G102*3)+(H102*9)+(I102*18)+F102</f>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="25">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="K102" s="24">
-        <f>F102*5+E102</f>
+      <c r="L102" s="24">
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
-      <c r="L102" s="17" t="str" cm="1">
-        <f t="array" ref="L102">_xlfn.IFS(A102="4lvl2",IF(J102&gt;=28,"No debe",28-J102), A102="4lvl1",IF(K102&gt;=28,"No debe",28-K102))</f>
+      <c r="M102" s="17" t="str" cm="1">
+        <f t="array" ref="M102">_xlfn.IFS(A102="4lvl2",IF(K102&gt;=28,"No debe",28-K102), A102="4lvl1",IF(L102&gt;=28,"No debe",28-L102))</f>
         <v>No debe</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(C103,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
+        <f>IF(ISERROR(VLOOKUP(D103,'Caza lvl 1'!A:A,1,0)),"4lvl2","4lvl1")</f>
         <v>4lvl2</v>
       </c>
       <c r="B103" s="16" t="str">
-        <f>_xlfn.IFS(A103 = "4lvl2",IF(J103&gt;=28,"Cumplio", "No cumplio"),A103 = "4lvl1",IF(K103&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" si="12"/>
         <v>Cumplio</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="16">
+        <v>874666931</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D103" s="28">
-        <f t="shared" si="1"/>
+      <c r="E103" s="28">
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="E103" s="7">
-        <v>0</v>
-      </c>
       <c r="F103" s="7">
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
         <v>42</v>
       </c>
-      <c r="G103" s="7">
-        <v>0</v>
-      </c>
       <c r="H103" s="7">
         <v>0</v>
       </c>
       <c r="I103" s="7">
         <v>0</v>
       </c>
-      <c r="J103" s="25">
-        <f>(G103*3)+(H103*9)+(I103*18)+F103</f>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="25">
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="K103" s="24">
-        <f>F103*5+E103</f>
+      <c r="L103" s="24">
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
-      <c r="L103" s="17" t="str" cm="1">
-        <f t="array" ref="L103">_xlfn.IFS(A103="4lvl2",IF(J103&gt;=28,"No debe",28-J103), A103="4lvl1",IF(K103&gt;=28,"No debe",28-K103))</f>
+      <c r="M103" s="17" t="str" cm="1">
+        <f t="array" ref="M103">_xlfn.IFS(A103="4lvl2",IF(K103&gt;=28,"No debe",28-K103), A103="4lvl1",IF(L103&gt;=28,"No debe",28-L103))</f>
         <v>No debe</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L103" xr:uid="{69F4E31B-89C1-4409-9A86-5CBD30F5EBA1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:L100">
-      <sortCondition ref="C4:C103"/>
+  <autoFilter ref="A4:M103" xr:uid="{69F4E31B-89C1-4409-9A86-5CBD30F5EBA1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:M100">
+      <sortCondition ref="D4:D103"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B5:B103">
+  <conditionalFormatting sqref="B5:C103">
     <cfRule type="beginsWith" dxfId="15" priority="3" operator="beginsWith" text="Cumplio">
       <formula>LEFT(B5,LEN("Cumplio"))="Cumplio"</formula>
     </cfRule>
@@ -11418,13 +11697,13 @@
       <formula>NOT(ISERROR(SEARCH("No cumplio",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L103">
+  <conditionalFormatting sqref="M5:M103">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="between">
       <formula>1</formula>
       <formula>9999999</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No debe">
-      <formula>NOT(ISERROR(SEARCH("No debe",L5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No debe",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11486,7 +11765,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="19">
-        <f>IFERROR(VLOOKUP(B2,Caza!C23:J121,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B2,Caza!D23:K121,8,0), 0)</f>
         <v>53</v>
       </c>
       <c r="F2" s="19">
@@ -11494,11 +11773,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="19">
-        <f>IFERROR(VLOOKUP(B2,,8,0), 0)</f>
+        <f t="shared" ref="G2:G33" si="0">IFERROR(VLOOKUP(B2,,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="23">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="H2:H33" si="1">SUM(C2:G2)</f>
         <v>156</v>
       </c>
     </row>
@@ -11518,7 +11797,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="19">
-        <f>IFERROR(VLOOKUP(B3,Caza!C79:J177,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B3,Caza!D79:K177,8,0), 0)</f>
         <v>43</v>
       </c>
       <c r="F3" s="19">
@@ -11526,11 +11805,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="19">
-        <f>IFERROR(VLOOKUP(B3,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="23">
-        <f>SUM(C3:G3)</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
@@ -11550,7 +11829,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="19">
-        <f>IFERROR(VLOOKUP(B4,Caza!C21:J119,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B4,Caza!D21:K119,8,0), 0)</f>
         <v>39</v>
       </c>
       <c r="F4" s="19">
@@ -11558,11 +11837,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f>IFERROR(VLOOKUP(B4,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="23">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
@@ -11582,7 +11861,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="19">
-        <f>IFERROR(VLOOKUP(B5,Caza!C101:J199,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B5,Caza!D101:K199,8,0), 0)</f>
         <v>37</v>
       </c>
       <c r="F5" s="19">
@@ -11590,11 +11869,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="19">
-        <f>IFERROR(VLOOKUP(B5,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="23">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
@@ -11614,7 +11893,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="19">
-        <f>IFERROR(VLOOKUP(B6,Caza!C77:J175,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B6,Caza!D77:K175,8,0), 0)</f>
         <v>41</v>
       </c>
       <c r="F6" s="19">
@@ -11622,11 +11901,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="19">
-        <f>IFERROR(VLOOKUP(B6,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="23">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -11646,7 +11925,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="19">
-        <f>IFERROR(VLOOKUP(B7,Caza!C14:J112,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B7,Caza!D14:K112,8,0), 0)</f>
         <v>46</v>
       </c>
       <c r="F7" s="19">
@@ -11654,11 +11933,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="19">
-        <f>IFERROR(VLOOKUP(B7,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="23">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -11678,7 +11957,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="19">
-        <f>IFERROR(VLOOKUP(B8,Caza!C61:J159,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B8,Caza!D61:K159,8,0), 0)</f>
         <v>35</v>
       </c>
       <c r="F8" s="19">
@@ -11686,11 +11965,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="19">
-        <f>IFERROR(VLOOKUP(B8,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="23">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
@@ -11710,7 +11989,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="19">
-        <f>IFERROR(VLOOKUP(B9,Caza!C56:J154,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B9,Caza!D56:K154,8,0), 0)</f>
         <v>42</v>
       </c>
       <c r="F9" s="19">
@@ -11718,11 +11997,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="19">
-        <f>IFERROR(VLOOKUP(B9,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="23">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -11742,7 +12021,7 @@
         <v>56</v>
       </c>
       <c r="E10" s="19">
-        <f>IFERROR(VLOOKUP(B10,Caza!C16:J114,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B10,Caza!D16:K114,8,0), 0)</f>
         <v>57</v>
       </c>
       <c r="F10" s="19">
@@ -11750,11 +12029,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="19">
-        <f>IFERROR(VLOOKUP(B10,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="23">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -11774,7 +12053,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="19">
-        <f>IFERROR(VLOOKUP(B11,Caza!C92:J190,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B11,Caza!D92:K190,8,0), 0)</f>
         <v>31</v>
       </c>
       <c r="F11" s="19">
@@ -11782,11 +12061,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="19">
-        <f>IFERROR(VLOOKUP(B11,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="23">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -11806,7 +12085,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="19">
-        <f>IFERROR(VLOOKUP(B12,Caza!C74:J172,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B12,Caza!D74:K172,8,0), 0)</f>
         <v>37</v>
       </c>
       <c r="F12" s="19">
@@ -11814,11 +12093,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="19">
-        <f>IFERROR(VLOOKUP(B12,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
@@ -11838,7 +12117,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="19">
-        <f>IFERROR(VLOOKUP(B13,Caza!C89:J187,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B13,Caza!D89:K187,8,0), 0)</f>
         <v>41</v>
       </c>
       <c r="F13" s="19">
@@ -11846,11 +12125,11 @@
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f>IFERROR(VLOOKUP(B13,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="23">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
@@ -11870,7 +12149,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="19">
-        <f>IFERROR(VLOOKUP(B14,Caza!C55:J153,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B14,Caza!D55:K153,8,0), 0)</f>
         <v>34</v>
       </c>
       <c r="F14" s="19">
@@ -11878,11 +12157,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="19">
-        <f>IFERROR(VLOOKUP(B14,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="23">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -11902,7 +12181,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="19">
-        <f>IFERROR(VLOOKUP(B15,Caza!C19:J117,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B15,Caza!D19:K117,8,0), 0)</f>
         <v>31</v>
       </c>
       <c r="F15" s="19">
@@ -11910,11 +12189,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="19">
-        <f>IFERROR(VLOOKUP(B15,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="23">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -11934,7 +12213,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="19">
-        <f>IFERROR(VLOOKUP(B16,Caza!C84:J182,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B16,Caza!D84:K182,8,0), 0)</f>
         <v>48</v>
       </c>
       <c r="F16" s="19">
@@ -11942,11 +12221,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="19">
-        <f>IFERROR(VLOOKUP(B16,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="23">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -11966,7 +12245,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="19">
-        <f>IFERROR(VLOOKUP(B17,Caza!C48:J146,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B17,Caza!D48:K146,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F17" s="19">
@@ -11974,11 +12253,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>IFERROR(VLOOKUP(B17,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -11998,7 +12277,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="19">
-        <f>IFERROR(VLOOKUP(B18,Caza!C6:J104,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B18,Caza!D6:K104,8,0), 0)</f>
         <v>21</v>
       </c>
       <c r="F18" s="19">
@@ -12006,11 +12285,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <f>IFERROR(VLOOKUP(B18,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="23">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -12030,7 +12309,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="19">
-        <f>IFERROR(VLOOKUP(B19,Caza!C59:J157,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B19,Caza!D59:K157,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F19" s="19">
@@ -12038,11 +12317,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="19">
-        <f>IFERROR(VLOOKUP(B19,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="23">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -12062,7 +12341,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="19">
-        <f>IFERROR(VLOOKUP(B20,Caza!C102:J200,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B20,Caza!D102:K200,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F20" s="19">
@@ -12070,11 +12349,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="19">
-        <f>IFERROR(VLOOKUP(B20,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -12094,7 +12373,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="19">
-        <f>IFERROR(VLOOKUP(B21,Caza!C67:J165,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B21,Caza!D67:K165,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F21" s="19">
@@ -12102,11 +12381,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f>IFERROR(VLOOKUP(B21,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -12126,7 +12405,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="19">
-        <f>IFERROR(VLOOKUP(B22,Caza!C103:J201,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B22,Caza!D103:K201,8,0), 0)</f>
         <v>42</v>
       </c>
       <c r="F22" s="19">
@@ -12134,11 +12413,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="19">
-        <f>IFERROR(VLOOKUP(B22,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -12158,7 +12437,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="19">
-        <f>IFERROR(VLOOKUP(B23,Caza!C46:J144,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B23,Caza!D46:K144,8,0), 0)</f>
         <v>65</v>
       </c>
       <c r="F23" s="19">
@@ -12166,11 +12445,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f>IFERROR(VLOOKUP(B23,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="23">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -12190,7 +12469,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="19">
-        <f>IFERROR(VLOOKUP(B24,Caza!C86:J184,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B24,Caza!D86:K184,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F24" s="19">
@@ -12198,11 +12477,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f>IFERROR(VLOOKUP(B24,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -12222,7 +12501,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="19">
-        <f>IFERROR(VLOOKUP(B25,Caza!C58:J156,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B25,Caza!D58:K156,8,0), 0)</f>
         <v>37</v>
       </c>
       <c r="F25" s="19">
@@ -12230,11 +12509,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f>IFERROR(VLOOKUP(B25,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -12254,7 +12533,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="19">
-        <f>IFERROR(VLOOKUP(B26,Caza!C30:J128,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B26,Caza!D30:K128,8,0), 0)</f>
         <v>45</v>
       </c>
       <c r="F26" s="19">
@@ -12262,11 +12541,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="19">
-        <f>IFERROR(VLOOKUP(B26,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="23">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -12286,7 +12565,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="19">
-        <f>IFERROR(VLOOKUP(B27,Caza!C41:J139,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B27,Caza!D41:K139,8,0), 0)</f>
         <v>25</v>
       </c>
       <c r="F27" s="19">
@@ -12294,11 +12573,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f>IFERROR(VLOOKUP(B27,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="23">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -12318,7 +12597,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="19">
-        <f>IFERROR(VLOOKUP(B28,Caza!C95:J193,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B28,Caza!D95:K193,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F28" s="19">
@@ -12326,11 +12605,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="19">
-        <f>IFERROR(VLOOKUP(B28,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -12350,7 +12629,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="19">
-        <f>IFERROR(VLOOKUP(B29,Caza!C28:J126,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B29,Caza!D28:K126,8,0), 0)</f>
         <v>53</v>
       </c>
       <c r="F29" s="19">
@@ -12358,11 +12637,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <f>IFERROR(VLOOKUP(B29,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="23">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -12382,7 +12661,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="19">
-        <f>IFERROR(VLOOKUP(B30,Caza!C68:J166,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B30,Caza!D68:K166,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F30" s="19">
@@ -12390,11 +12669,11 @@
         <v>0</v>
       </c>
       <c r="G30" s="19">
-        <f>IFERROR(VLOOKUP(B30,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="23">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -12414,7 +12693,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="19">
-        <f>IFERROR(VLOOKUP(B31,Caza!C90:J188,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B31,Caza!D90:K188,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F31" s="19">
@@ -12422,11 +12701,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="19">
-        <f>IFERROR(VLOOKUP(B31,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="23">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -12446,7 +12725,7 @@
         <v>46</v>
       </c>
       <c r="E32" s="19">
-        <f>IFERROR(VLOOKUP(B32,Caza!C25:J123,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B32,Caza!D25:K123,8,0), 0)</f>
         <v>40</v>
       </c>
       <c r="F32" s="19">
@@ -12454,11 +12733,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="19">
-        <f>IFERROR(VLOOKUP(B32,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="23">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -12478,7 +12757,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="19">
-        <f>IFERROR(VLOOKUP(B33,Caza!C45:J143,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B33,Caza!D45:K143,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F33" s="19">
@@ -12486,11 +12765,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <f>IFERROR(VLOOKUP(B33,,8,0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="23">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -12510,7 +12789,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="19">
-        <f>IFERROR(VLOOKUP(B34,Caza!C73:J171,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B34,Caza!D73:K171,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F34" s="19">
@@ -12518,11 +12797,11 @@
         <v>0</v>
       </c>
       <c r="G34" s="19">
-        <f>IFERROR(VLOOKUP(B34,,8,0), 0)</f>
+        <f t="shared" ref="G34:G65" si="2">IFERROR(VLOOKUP(B34,,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" ref="H34:H65" si="3">SUM(C34:G34)</f>
         <v>85</v>
       </c>
     </row>
@@ -12542,7 +12821,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="19">
-        <f>IFERROR(VLOOKUP(B35,Caza!C83:J181,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B35,Caza!D83:K181,8,0), 0)</f>
         <v>42</v>
       </c>
       <c r="F35" s="19">
@@ -12550,11 +12829,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="19">
-        <f>IFERROR(VLOOKUP(B35,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="23">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
     </row>
@@ -12574,7 +12853,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="19">
-        <f>IFERROR(VLOOKUP(B36,Caza!C20:J118,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B36,Caza!D20:K118,8,0), 0)</f>
         <v>33</v>
       </c>
       <c r="F36" s="19">
@@ -12582,11 +12861,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="19">
-        <f>IFERROR(VLOOKUP(B36,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="23">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
@@ -12606,7 +12885,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="19">
-        <f>IFERROR(VLOOKUP(B37,Caza!C11:J109,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B37,Caza!D11:K109,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F37" s="19">
@@ -12614,11 +12893,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <f>IFERROR(VLOOKUP(B37,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="23">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -12638,7 +12917,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="19">
-        <f>IFERROR(VLOOKUP(B38,Caza!C52:J150,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B38,Caza!D52:K150,8,0), 0)</f>
         <v>52</v>
       </c>
       <c r="F38" s="19">
@@ -12646,11 +12925,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="19">
-        <f>IFERROR(VLOOKUP(B38,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="23">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -12670,7 +12949,7 @@
         <v>41</v>
       </c>
       <c r="E39" s="19">
-        <f>IFERROR(VLOOKUP(B39,Caza!C37:J135,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B39,Caza!D37:K135,8,0), 0)</f>
         <v>37</v>
       </c>
       <c r="F39" s="19">
@@ -12678,11 +12957,11 @@
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <f>IFERROR(VLOOKUP(B39,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="23">
-        <f>SUM(C39:G39)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
     </row>
@@ -12702,7 +12981,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="19">
-        <f>IFERROR(VLOOKUP(B40,Caza!C27:J125,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B40,Caza!D27:K125,8,0), 0)</f>
         <v>27</v>
       </c>
       <c r="F40" s="19">
@@ -12710,11 +12989,11 @@
         <v>0</v>
       </c>
       <c r="G40" s="19">
-        <f>IFERROR(VLOOKUP(B40,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="23">
-        <f>SUM(C40:G40)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -12734,7 +13013,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="19">
-        <f>IFERROR(VLOOKUP(B41,Caza!C60:J158,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B41,Caza!D60:K158,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F41" s="19">
@@ -12742,11 +13021,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f>IFERROR(VLOOKUP(B41,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="23">
-        <f>SUM(C41:G41)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -12766,7 +13045,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="19">
-        <f>IFERROR(VLOOKUP(B42,Caza!C76:J174,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B42,Caza!D76:K174,8,0), 0)</f>
         <v>32</v>
       </c>
       <c r="F42" s="19">
@@ -12774,11 +13053,11 @@
         <v>0</v>
       </c>
       <c r="G42" s="19">
-        <f>IFERROR(VLOOKUP(B42,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="23">
-        <f>SUM(C42:G42)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -12798,7 +13077,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="19">
-        <f>IFERROR(VLOOKUP(B43,Caza!C96:J194,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B43,Caza!D96:K194,8,0), 0)</f>
         <v>30</v>
       </c>
       <c r="F43" s="19">
@@ -12806,11 +13085,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="19">
-        <f>IFERROR(VLOOKUP(B43,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="23">
-        <f>SUM(C43:G43)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -12830,7 +13109,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="19">
-        <f>IFERROR(VLOOKUP(B44,Caza!C62:J160,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B44,Caza!D62:K160,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F44" s="19">
@@ -12838,11 +13117,11 @@
         <v>0</v>
       </c>
       <c r="G44" s="19">
-        <f>IFERROR(VLOOKUP(B44,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="23">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
@@ -12862,7 +13141,7 @@
         <v>47</v>
       </c>
       <c r="E45" s="19">
-        <f>IFERROR(VLOOKUP(B45,Caza!C12:J110,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B45,Caza!D12:K110,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F45" s="19">
@@ -12870,11 +13149,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="19">
-        <f>IFERROR(VLOOKUP(B45,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="23">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -12894,7 +13173,7 @@
         <v>28</v>
       </c>
       <c r="E46" s="19">
-        <f>IFERROR(VLOOKUP(B46,Caza!C64:J162,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B46,Caza!D64:K162,8,0), 0)</f>
         <v>19</v>
       </c>
       <c r="F46" s="19">
@@ -12902,11 +13181,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="19">
-        <f>IFERROR(VLOOKUP(B46,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="23">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -12926,7 +13205,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="19">
-        <f>IFERROR(VLOOKUP(B47,Caza!C5:J103,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B47,Caza!D5:K103,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F47" s="19">
@@ -12934,11 +13213,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="19">
-        <f>IFERROR(VLOOKUP(B47,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="23">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -12958,7 +13237,7 @@
         <v>34</v>
       </c>
       <c r="E48" s="19">
-        <f>IFERROR(VLOOKUP(B48,Caza!C93:J191,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B48,Caza!D93:K191,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F48" s="19">
@@ -12966,11 +13245,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <f>IFERROR(VLOOKUP(B48,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="23">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -12990,7 +13269,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="19">
-        <f>IFERROR(VLOOKUP(B49,Caza!C94:J192,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B49,Caza!D94:K192,8,0), 0)</f>
         <v>18</v>
       </c>
       <c r="F49" s="19">
@@ -12998,11 +13277,11 @@
         <v>0</v>
       </c>
       <c r="G49" s="19">
-        <f>IFERROR(VLOOKUP(B49,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="23">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -13022,7 +13301,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="19">
-        <f>IFERROR(VLOOKUP(B50,Caza!C100:J198,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B50,Caza!D100:K198,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F50" s="19">
@@ -13030,11 +13309,11 @@
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <f>IFERROR(VLOOKUP(B50,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="23">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -13054,7 +13333,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="19">
-        <f>IFERROR(VLOOKUP(B51,Caza!C57:J155,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B51,Caza!D57:K155,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F51" s="19">
@@ -13062,11 +13341,11 @@
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <f>IFERROR(VLOOKUP(B51,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="23">
-        <f>SUM(C51:G51)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -13086,7 +13365,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="19">
-        <f>IFERROR(VLOOKUP(B52,Caza!C97:J195,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B52,Caza!D97:K195,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F52" s="19">
@@ -13094,11 +13373,11 @@
         <v>0</v>
       </c>
       <c r="G52" s="19">
-        <f>IFERROR(VLOOKUP(B52,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="23">
-        <f>SUM(C52:G52)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -13118,7 +13397,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="19">
-        <f>IFERROR(VLOOKUP(B53,Caza!C8:J106,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B53,Caza!D8:K106,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F53" s="19">
@@ -13126,11 +13405,11 @@
         <v>0</v>
       </c>
       <c r="G53" s="19">
-        <f>IFERROR(VLOOKUP(B53,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="23">
-        <f>SUM(C53:G53)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
@@ -13150,7 +13429,7 @@
         <v>34</v>
       </c>
       <c r="E54" s="19">
-        <f>IFERROR(VLOOKUP(B54,Caza!C54:J152,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B54,Caza!D54:K152,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F54" s="19">
@@ -13158,11 +13437,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="19">
-        <f>IFERROR(VLOOKUP(B54,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="23">
-        <f>SUM(C54:G54)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -13182,7 +13461,7 @@
         <v>33</v>
       </c>
       <c r="E55" s="19">
-        <f>IFERROR(VLOOKUP(B55,Caza!C42:J140,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B55,Caza!D42:K140,8,0), 0)</f>
         <v>36</v>
       </c>
       <c r="F55" s="19">
@@ -13190,11 +13469,11 @@
         <v>0</v>
       </c>
       <c r="G55" s="19">
-        <f>IFERROR(VLOOKUP(B55,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="23">
-        <f>SUM(C55:G55)</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
     </row>
@@ -13214,7 +13493,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="19">
-        <f>IFERROR(VLOOKUP(B56,Caza!C75:J173,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B56,Caza!D75:K173,8,0), 0)</f>
         <v>17</v>
       </c>
       <c r="F56" s="19">
@@ -13222,11 +13501,11 @@
         <v>0</v>
       </c>
       <c r="G56" s="19">
-        <f>IFERROR(VLOOKUP(B56,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="23">
-        <f>SUM(C56:G56)</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
@@ -13246,7 +13525,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="19">
-        <f>IFERROR(VLOOKUP(B57,Caza!C63:J161,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B57,Caza!D63:K161,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F57" s="19">
@@ -13254,11 +13533,11 @@
         <v>0</v>
       </c>
       <c r="G57" s="19">
-        <f>IFERROR(VLOOKUP(B57,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="23">
-        <f>SUM(C57:G57)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -13278,7 +13557,7 @@
         <v>37</v>
       </c>
       <c r="E58" s="19">
-        <f>IFERROR(VLOOKUP(B58,Caza!C69:J167,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B58,Caza!D69:K167,8,0), 0)</f>
         <v>26</v>
       </c>
       <c r="F58" s="19">
@@ -13286,11 +13565,11 @@
         <v>0</v>
       </c>
       <c r="G58" s="19">
-        <f>IFERROR(VLOOKUP(B58,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="23">
-        <f>SUM(C58:G58)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -13310,7 +13589,7 @@
         <v>33</v>
       </c>
       <c r="E59" s="19">
-        <f>IFERROR(VLOOKUP(B59,Caza!C32:J130,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B59,Caza!D32:K130,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F59" s="19">
@@ -13318,11 +13597,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="19">
-        <f>IFERROR(VLOOKUP(B59,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="23">
-        <f>SUM(C59:G59)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -13342,7 +13621,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="19">
-        <f>IFERROR(VLOOKUP(B60,Caza!C33:J131,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B60,Caza!D33:K131,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F60" s="19">
@@ -13350,11 +13629,11 @@
         <v>0</v>
       </c>
       <c r="G60" s="19">
-        <f>IFERROR(VLOOKUP(B60,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="23">
-        <f>SUM(C60:G60)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -13374,7 +13653,7 @@
         <v>31</v>
       </c>
       <c r="E61" s="19">
-        <f>IFERROR(VLOOKUP(B61,Caza!C44:J142,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B61,Caza!D44:K142,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F61" s="19">
@@ -13382,11 +13661,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="19">
-        <f>IFERROR(VLOOKUP(B61,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="23">
-        <f>SUM(C61:G61)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -13406,7 +13685,7 @@
         <v>28</v>
       </c>
       <c r="E62" s="19">
-        <f>IFERROR(VLOOKUP(B62,Caza!C66:J164,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B62,Caza!D66:K164,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F62" s="19">
@@ -13414,11 +13693,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="19">
-        <f>IFERROR(VLOOKUP(B62,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62" s="23">
-        <f>SUM(C62:G62)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -13438,7 +13717,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="19">
-        <f>IFERROR(VLOOKUP(B63,Caza!C91:J189,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B63,Caza!D91:K189,8,0), 0)</f>
         <v>20</v>
       </c>
       <c r="F63" s="19">
@@ -13446,11 +13725,11 @@
         <v>0</v>
       </c>
       <c r="G63" s="19">
-        <f>IFERROR(VLOOKUP(B63,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <f>SUM(C63:G63)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -13470,7 +13749,7 @@
         <v>28</v>
       </c>
       <c r="E64" s="19">
-        <f>IFERROR(VLOOKUP(B64,Caza!C13:J111,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B64,Caza!D13:K111,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F64" s="19">
@@ -13478,11 +13757,11 @@
         <v>0</v>
       </c>
       <c r="G64" s="19">
-        <f>IFERROR(VLOOKUP(B64,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="23">
-        <f>SUM(C64:G64)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -13502,7 +13781,7 @@
         <v>28</v>
       </c>
       <c r="E65" s="19">
-        <f>IFERROR(VLOOKUP(B65,Caza!C31:J129,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B65,Caza!D31:K129,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F65" s="19">
@@ -13510,11 +13789,11 @@
         <v>0</v>
       </c>
       <c r="G65" s="19">
-        <f>IFERROR(VLOOKUP(B65,,8,0), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="23">
-        <f>SUM(C65:G65)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -13534,7 +13813,7 @@
         <v>28</v>
       </c>
       <c r="E66" s="19">
-        <f>IFERROR(VLOOKUP(B66,Caza!C36:J134,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B66,Caza!D36:K134,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F66" s="19">
@@ -13542,11 +13821,11 @@
         <v>0</v>
       </c>
       <c r="G66" s="19">
-        <f>IFERROR(VLOOKUP(B66,,8,0), 0)</f>
+        <f t="shared" ref="G66:G100" si="4">IFERROR(VLOOKUP(B66,,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <f>SUM(C66:G66)</f>
+        <f t="shared" ref="H66:H97" si="5">SUM(C66:G66)</f>
         <v>56</v>
       </c>
     </row>
@@ -13566,7 +13845,7 @@
         <v>28</v>
       </c>
       <c r="E67" s="19">
-        <f>IFERROR(VLOOKUP(B67,Caza!C51:J149,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B67,Caza!D51:K149,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F67" s="19">
@@ -13574,11 +13853,11 @@
         <v>0</v>
       </c>
       <c r="G67" s="19">
-        <f>IFERROR(VLOOKUP(B67,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H67" s="23">
-        <f>SUM(C67:G67)</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
@@ -13598,7 +13877,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="19">
-        <f>IFERROR(VLOOKUP(B68,Caza!C98:J196,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B68,Caza!D98:K196,8,0), 0)</f>
         <v>28</v>
       </c>
       <c r="F68" s="19">
@@ -13606,11 +13885,11 @@
         <v>0</v>
       </c>
       <c r="G68" s="19">
-        <f>IFERROR(VLOOKUP(B68,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <f>SUM(C68:G68)</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
@@ -13630,7 +13909,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="19">
-        <f>IFERROR(VLOOKUP(B69,Caza!C78:J176,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B69,Caza!D78:K176,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F69" s="19">
@@ -13638,11 +13917,11 @@
         <v>0</v>
       </c>
       <c r="G69" s="19">
-        <f>IFERROR(VLOOKUP(B69,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <f>SUM(C69:G69)</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -13662,7 +13941,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="19">
-        <f>IFERROR(VLOOKUP(B70,Caza!C82:J180,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B70,Caza!D82:K180,8,0), 0)</f>
         <v>14</v>
       </c>
       <c r="F70" s="19">
@@ -13670,11 +13949,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="19">
-        <f>IFERROR(VLOOKUP(B70,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f>SUM(C70:G70)</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -13694,7 +13973,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="19">
-        <f>IFERROR(VLOOKUP(B71,Caza!C81:J179,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B71,Caza!D81:K179,8,0), 0)</f>
         <v>9</v>
       </c>
       <c r="F71" s="19">
@@ -13702,11 +13981,11 @@
         <v>0</v>
       </c>
       <c r="G71" s="19">
-        <f>IFERROR(VLOOKUP(B71,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="23">
-        <f>SUM(C71:G71)</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
     </row>
@@ -13726,7 +14005,7 @@
         <v>30</v>
       </c>
       <c r="E72" s="19">
-        <f>IFERROR(VLOOKUP(B72,Caza!C7:J105,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B72,Caza!D7:K105,8,0), 0)</f>
         <v>20</v>
       </c>
       <c r="F72" s="19">
@@ -13734,11 +14013,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="19">
-        <f>IFERROR(VLOOKUP(B72,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <f>SUM(C72:G72)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -13758,7 +14037,7 @@
         <v>34</v>
       </c>
       <c r="E73" s="19">
-        <f>IFERROR(VLOOKUP(B73,Caza!C9:J107,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B73,Caza!D9:K107,8,0), 0)</f>
         <v>15</v>
       </c>
       <c r="F73" s="19">
@@ -13766,11 +14045,11 @@
         <v>0</v>
       </c>
       <c r="G73" s="19">
-        <f>IFERROR(VLOOKUP(B73,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73" s="23">
-        <f>SUM(C73:G73)</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
@@ -13790,7 +14069,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="19">
-        <f>IFERROR(VLOOKUP(B74,Caza!C24:J122,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B74,Caza!D24:K122,8,0), 0)</f>
         <v>7</v>
       </c>
       <c r="F74" s="19">
@@ -13798,11 +14077,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="19">
-        <f>IFERROR(VLOOKUP(B74,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <f>SUM(C74:G74)</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
@@ -13822,7 +14101,7 @@
         <v>26</v>
       </c>
       <c r="E75" s="19">
-        <f>IFERROR(VLOOKUP(B75,Caza!C47:J145,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B75,Caza!D47:K145,8,0), 0)</f>
         <v>16</v>
       </c>
       <c r="F75" s="19">
@@ -13830,11 +14109,11 @@
         <v>0</v>
       </c>
       <c r="G75" s="19">
-        <f>IFERROR(VLOOKUP(B75,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <f>SUM(C75:G75)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
@@ -13854,7 +14133,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <f>IFERROR(VLOOKUP(B76,Caza!C80:J178,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B76,Caza!D80:K178,8,0), 0)</f>
         <v>29</v>
       </c>
       <c r="F76" s="19">
@@ -13862,11 +14141,11 @@
         <v>0</v>
       </c>
       <c r="G76" s="19">
-        <f>IFERROR(VLOOKUP(B76,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <f>SUM(C76:G76)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
@@ -13886,7 +14165,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="19">
-        <f>IFERROR(VLOOKUP(B77,Caza!C18:J116,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B77,Caza!D18:K116,8,0), 0)</f>
         <v>13</v>
       </c>
       <c r="F77" s="19">
@@ -13894,11 +14173,11 @@
         <v>0</v>
       </c>
       <c r="G77" s="19">
-        <f>IFERROR(VLOOKUP(B77,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="23">
-        <f>SUM(C77:G77)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -13918,7 +14197,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="19">
-        <f>IFERROR(VLOOKUP(B78,Caza!C22:J120,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B78,Caza!D22:K120,8,0), 0)</f>
         <v>9</v>
       </c>
       <c r="F78" s="19">
@@ -13926,11 +14205,11 @@
         <v>0</v>
       </c>
       <c r="G78" s="19">
-        <f>IFERROR(VLOOKUP(B78,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="23">
-        <f>SUM(C78:G78)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
@@ -13950,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="19">
-        <f>IFERROR(VLOOKUP(B79,Caza!C26:J124,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B79,Caza!D26:K124,8,0), 0)</f>
         <v>30</v>
       </c>
       <c r="F79" s="19">
@@ -13958,11 +14237,11 @@
         <v>0</v>
       </c>
       <c r="G79" s="19">
-        <f>IFERROR(VLOOKUP(B79,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <f>SUM(C79:G79)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -13982,7 +14261,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="19">
-        <f>IFERROR(VLOOKUP(B80,Caza!C87:J185,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B80,Caza!D87:K185,8,0), 0)</f>
         <v>4</v>
       </c>
       <c r="F80" s="19">
@@ -13990,11 +14269,11 @@
         <v>0</v>
       </c>
       <c r="G80" s="19">
-        <f>IFERROR(VLOOKUP(B80,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="23">
-        <f>SUM(C80:G80)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
@@ -14014,7 +14293,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="19">
-        <f>IFERROR(VLOOKUP(B81,Caza!C71:J169,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B81,Caza!D71:K169,8,0), 0)</f>
         <v>11</v>
       </c>
       <c r="F81" s="19">
@@ -14022,11 +14301,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="19">
-        <f>IFERROR(VLOOKUP(B81,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <f>SUM(C81:G81)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -14046,7 +14325,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="19">
-        <f>IFERROR(VLOOKUP(B82,Caza!C50:J148,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B82,Caza!D50:K148,8,0), 0)</f>
         <v>12</v>
       </c>
       <c r="F82" s="19">
@@ -14054,11 +14333,11 @@
         <v>0</v>
       </c>
       <c r="G82" s="19">
-        <f>IFERROR(VLOOKUP(B82,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f>SUM(C82:G82)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -14078,7 +14357,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="19">
-        <f>IFERROR(VLOOKUP(B83,Caza!C35:J133,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B83,Caza!D35:K133,8,0), 0)</f>
         <v>11</v>
       </c>
       <c r="F83" s="19">
@@ -14086,11 +14365,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="19">
-        <f>IFERROR(VLOOKUP(B83,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <f>SUM(C83:G83)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
@@ -14110,7 +14389,7 @@
         <v>22</v>
       </c>
       <c r="E84" s="19">
-        <f>IFERROR(VLOOKUP(B84,Caza!C43:J141,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B84,Caza!D43:K141,8,0), 0)</f>
         <v>1</v>
       </c>
       <c r="F84" s="19">
@@ -14118,11 +14397,11 @@
         <v>0</v>
       </c>
       <c r="G84" s="19">
-        <f>IFERROR(VLOOKUP(B84,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <f>SUM(C84:G84)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
@@ -14142,7 +14421,7 @@
         <v>13</v>
       </c>
       <c r="E85" s="19">
-        <f>IFERROR(VLOOKUP(B85,Caza!C53:J151,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B85,Caza!D53:K151,8,0), 0)</f>
         <v>5</v>
       </c>
       <c r="F85" s="19">
@@ -14150,11 +14429,11 @@
         <v>0</v>
       </c>
       <c r="G85" s="19">
-        <f>IFERROR(VLOOKUP(B85,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="23">
-        <f>SUM(C85:G85)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -14174,7 +14453,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="19">
-        <f>IFERROR(VLOOKUP(B86,Caza!C17:J115,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B86,Caza!D17:K115,8,0), 0)</f>
         <v>7</v>
       </c>
       <c r="F86" s="19">
@@ -14182,11 +14461,11 @@
         <v>0</v>
       </c>
       <c r="G86" s="19">
-        <f>IFERROR(VLOOKUP(B86,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="23">
-        <f>SUM(C86:G86)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -14206,7 +14485,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="19">
-        <f>IFERROR(VLOOKUP(B87,Caza!C29:J127,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B87,Caza!D29:K127,8,0), 0)</f>
         <v>6</v>
       </c>
       <c r="F87" s="19">
@@ -14214,11 +14493,11 @@
         <v>0</v>
       </c>
       <c r="G87" s="19">
-        <f>IFERROR(VLOOKUP(B87,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87" s="23">
-        <f>SUM(C87:G87)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -14238,7 +14517,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="19">
-        <f>IFERROR(VLOOKUP(B88,Caza!C10:J108,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B88,Caza!D10:K108,8,0), 0)</f>
         <v>4</v>
       </c>
       <c r="F88" s="19">
@@ -14246,11 +14525,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="19">
-        <f>IFERROR(VLOOKUP(B88,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88" s="23">
-        <f>SUM(C88:G88)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -14270,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="19">
-        <f>IFERROR(VLOOKUP(B89,Caza!C49:J147,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B89,Caza!D49:K147,8,0), 0)</f>
         <v>5</v>
       </c>
       <c r="F89" s="19">
@@ -14278,11 +14557,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="19">
-        <f>IFERROR(VLOOKUP(B89,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89" s="23">
-        <f>SUM(C89:G89)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -14302,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="19">
-        <f>IFERROR(VLOOKUP(B90,Caza!C65:J163,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B90,Caza!D65:K163,8,0), 0)</f>
         <v>5</v>
       </c>
       <c r="F90" s="19">
@@ -14310,11 +14589,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="19">
-        <f>IFERROR(VLOOKUP(B90,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90" s="23">
-        <f>SUM(C90:G90)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -14334,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="19">
-        <f>IFERROR(VLOOKUP(B91,Caza!C72:J170,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B91,Caza!D72:K170,8,0), 0)</f>
         <v>4</v>
       </c>
       <c r="F91" s="19">
@@ -14342,11 +14621,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="19">
-        <f>IFERROR(VLOOKUP(B91,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91" s="23">
-        <f>SUM(C91:G91)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -14366,7 +14645,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="19">
-        <f>IFERROR(VLOOKUP(B92,Caza!C70:J168,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B92,Caza!D70:K168,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F92" s="19">
@@ -14374,11 +14653,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="19">
-        <f>IFERROR(VLOOKUP(B92,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92" s="23">
-        <f>SUM(C92:G92)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -14398,7 +14677,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="19">
-        <f>IFERROR(VLOOKUP(B93,Caza!C38:J136,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B93,Caza!D38:K136,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F93" s="19">
@@ -14406,11 +14685,11 @@
         <v>0</v>
       </c>
       <c r="G93" s="19">
-        <f>IFERROR(VLOOKUP(B93,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H93" s="23">
-        <f>SUM(C93:G93)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -14430,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="19">
-        <f>IFERROR(VLOOKUP(B94,Caza!C99:J197,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B94,Caza!D99:K197,8,0), 0)</f>
         <v>2</v>
       </c>
       <c r="F94" s="19">
@@ -14438,11 +14717,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="19">
-        <f>IFERROR(VLOOKUP(B94,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94" s="23">
-        <f>SUM(C94:G94)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -14462,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="19">
-        <f>IFERROR(VLOOKUP(B95,Caza!C88:J186,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B95,Caza!D88:K186,8,0), 0)</f>
         <v>1</v>
       </c>
       <c r="F95" s="19">
@@ -14470,11 +14749,11 @@
         <v>0</v>
       </c>
       <c r="G95" s="19">
-        <f>IFERROR(VLOOKUP(B95,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="23">
-        <f>SUM(C95:G95)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14494,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="19">
-        <f>IFERROR(VLOOKUP(B96,Caza!C15:J113,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B96,Caza!D15:K113,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F96" s="19">
@@ -14502,11 +14781,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="19">
-        <f>IFERROR(VLOOKUP(B96,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H96" s="23">
-        <f>SUM(C96:G96)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14526,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="19">
-        <f>IFERROR(VLOOKUP(B97,Caza!C34:J132,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B97,Caza!D34:K132,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F97" s="19">
@@ -14534,11 +14813,11 @@
         <v>0</v>
       </c>
       <c r="G97" s="19">
-        <f>IFERROR(VLOOKUP(B97,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H97" s="23">
-        <f>SUM(C97:G97)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14558,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="19">
-        <f>IFERROR(VLOOKUP(B98,Caza!C39:J137,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B98,Caza!D39:K137,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F98" s="19">
@@ -14566,11 +14845,11 @@
         <v>0</v>
       </c>
       <c r="G98" s="19">
-        <f>IFERROR(VLOOKUP(B98,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98" s="23">
-        <f>SUM(C98:G98)</f>
+        <f t="shared" ref="H98:H100" si="6">SUM(C98:G98)</f>
         <v>0</v>
       </c>
     </row>
@@ -14590,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="19">
-        <f>IFERROR(VLOOKUP(B99,Caza!C40:J138,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B99,Caza!D40:K138,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F99" s="19">
@@ -14598,11 +14877,11 @@
         <v>0</v>
       </c>
       <c r="G99" s="19">
-        <f>IFERROR(VLOOKUP(B99,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H99" s="23">
-        <f>SUM(C99:G99)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14622,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="19">
-        <f>IFERROR(VLOOKUP(B100,Caza!C85:J183,8,0), 0)</f>
+        <f>IFERROR(VLOOKUP(B100,Caza!D85:K183,8,0), 0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="19">
@@ -14630,11 +14909,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="19">
-        <f>IFERROR(VLOOKUP(B100,,8,0), 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100" s="23">
-        <f>SUM(C100:G100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15264,7 +15543,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -15278,100 +15557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5575C596-9872-491F-8491-EF0C05317FD6}">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="C1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC06370-37F7-4020-86F7-635F32CD298A}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15426,7 +15616,7 @@
       <c r="L1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15434,7 +15624,7 @@
       <c r="A2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -15458,16 +15648,16 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <v>21</v>
       </c>
       <c r="K2" s="24">
         <v>15</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="33">
         <v>7</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <v>5493417036998</v>
       </c>
     </row>
@@ -15475,7 +15665,7 @@
       <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -15499,16 +15689,16 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>20</v>
       </c>
       <c r="K3" s="24">
         <v>25</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="33">
         <v>8</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="31">
         <v>5493417036998</v>
       </c>
     </row>
@@ -15516,7 +15706,7 @@
       <c r="A4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -15540,22 +15730,22 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>15</v>
       </c>
       <c r="K4" s="24">
         <v>15</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <v>13</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -15579,22 +15769,22 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>7</v>
       </c>
       <c r="K5" s="24">
         <v>35</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="33">
         <v>21</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -15618,16 +15808,16 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>27</v>
       </c>
       <c r="K6" s="24">
         <v>45</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>1</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>5215584183166</v>
       </c>
     </row>
@@ -15635,7 +15825,7 @@
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -15659,16 +15849,16 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <v>11</v>
       </c>
       <c r="K7" s="24">
         <v>25</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <v>3</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>5215584183166</v>
       </c>
     </row>
@@ -15676,7 +15866,7 @@
       <c r="A8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -15700,16 +15890,16 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>25</v>
       </c>
       <c r="K8" s="24">
         <v>125</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="33">
         <v>3</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>51925251788</v>
       </c>
     </row>
@@ -15717,7 +15907,7 @@
       <c r="A9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -15741,16 +15931,16 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <v>19</v>
       </c>
       <c r="K9" s="24">
         <v>65</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <v>9</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>5215538901631</v>
       </c>
     </row>
@@ -15758,7 +15948,7 @@
       <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -15782,22 +15972,22 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <v>26</v>
       </c>
       <c r="K10" s="24">
         <v>85</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <v>2</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -15821,22 +16011,22 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>0</v>
       </c>
       <c r="K11" s="24">
         <v>3</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="33">
         <v>25</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -15860,16 +16050,16 @@
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <v>17</v>
       </c>
       <c r="K12" s="24">
         <v>85</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="33">
         <v>11</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <v>5216441981553</v>
       </c>
     </row>
@@ -15877,7 +16067,7 @@
       <c r="A13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -15901,40 +16091,40 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <v>18</v>
       </c>
       <c r="K13" s="24">
         <v>0</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <v>10</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="beginsWith" dxfId="11" priority="3" operator="beginsWith" text="Cumplio">
+      <formula>LEFT(B2,LEN("Cumplio"))="Cumplio"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="No cumplio">
+      <formula>NOT(ISERROR(SEARCH("No cumplio",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L2:L13">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
       <formula>1</formula>
       <formula>9999999</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No debe">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No debe">
       <formula>NOT(ISERROR(SEARCH("No debe",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="beginsWith" dxfId="9" priority="3" operator="beginsWith" text="Cumplio">
-      <formula>LEFT(B2,LEN("Cumplio"))="Cumplio"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No cumplio">
-      <formula>NOT(ISERROR(SEARCH("No cumplio",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4C8B4B-CF4B-4247-B9E2-EEF50BC05519}">
   <dimension ref="A1:L109"/>
   <sheetViews>
@@ -20162,7 +20352,7 @@
         <v>4lvl2</v>
       </c>
       <c r="B101" s="16" t="str">
-        <f t="shared" ref="B101:B132" si="10">_xlfn.IFS(A101 = "4lvl2",IF(J101&gt;=28,"Cumplio", "No cumplio"),A101 = "4lvl1",IF(K101&gt;= 28,"Cumplio","No cumplio"))</f>
+        <f t="shared" ref="B101:B109" si="10">_xlfn.IFS(A101 = "4lvl2",IF(J101&gt;=28,"Cumplio", "No cumplio"),A101 = "4lvl1",IF(K101&gt;= 28,"Cumplio","No cumplio"))</f>
         <v>No cumplio</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -20187,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="25">
-        <f t="shared" ref="J101:J132" si="11">(G101*3)+(H101*9)+(I101*18)+F101</f>
+        <f t="shared" ref="J101:J109" si="11">(G101*3)+(H101*9)+(I101*18)+F101</f>
         <v>10</v>
       </c>
       <c r="K101" s="24">
@@ -20570,7 +20760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525397FC-64D1-4FD6-82A0-08479929583E}">
   <dimension ref="A1:L111"/>
   <sheetViews>
